--- a/producto.xlsx
+++ b/producto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003D3F0-3050-48FD-8138-0EEF5BFC8CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE9017-0628-45B2-BA40-3E4C4C9AFF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="479">
   <si>
     <t>CODIGO</t>
   </si>
@@ -647,9 +647,6 @@
     <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3262_hcvb2u.mp4</t>
   </si>
   <si>
-    <t>https://www.kinsmart.com/upload/products/original/059346103299.KT5332-website.jpg</t>
-  </si>
-  <si>
     <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_5617_2_rjhxjj.mp4</t>
   </si>
   <si>
@@ -1464,6 +1461,15 @@
   </si>
   <si>
     <t>Batería de larga duración de hasta 10 horas, Compatible con Bluetooth 5.4, Resistencia IP67 al polvo y al agua</t>
+  </si>
+  <si>
+    <t>https://pouyamaket.ir/shop-resources/nox9zYUWFH/product-images/1741860756_5236.jpg?size=500x500&amp;rs=fit</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_759200-CBT80832894633_112024-O-kinsmart-juego-de-45-1932-ford-coupe-de-3-ventanas-juguete.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_966809-CBT80832894635_112024-O-kinsmart-juego-de-45-1932-ford-coupe-de-3-ventanas-juguete.webp</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1570,6 +1576,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1639,9 +1647,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J155" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:J155" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <autoFilter ref="A1:J155" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J155">
-    <sortCondition ref="F1:F155"/>
+    <sortCondition ref="E1:E155"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO"/>
@@ -1950,19 +1965,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1999,157 +2015,165 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="8">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" s="8">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H2" s="2">
-        <v>19</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H3" s="2">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H4" s="2">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0101</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H4" s="8">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>448</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="A5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H5" s="8">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0101</v>
       </c>
-      <c r="G5" t="s">
-        <v>455</v>
-      </c>
-      <c r="H5" s="2">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F6" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0101</v>
-      </c>
+      <c r="G6"/>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
         <v>128</v>
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s">
         <v>318</v>
       </c>
-      <c r="B7" t="s">
-        <v>319</v>
-      </c>
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7"/>
       <c r="E7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1009</v>
       </c>
+      <c r="G7"/>
       <c r="H7" s="2"/>
       <c r="I7" s="5" t="s">
         <v>104</v>
@@ -2158,23 +2182,25 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
         <v>291</v>
       </c>
-      <c r="B8" t="s">
-        <v>292</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1010</v>
       </c>
+      <c r="G8"/>
       <c r="H8" s="2"/>
       <c r="I8" s="6" t="s">
         <v>130</v>
@@ -2184,50 +2210,52 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>451</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="A9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5412B</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H9" s="8">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1011</v>
       </c>
-      <c r="G9" t="s">
-        <v>463</v>
-      </c>
-      <c r="H9" s="2">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1011</v>
-      </c>
+      <c r="G10"/>
       <c r="H10" s="2">
         <v>28</v>
       </c>
@@ -2237,189 +2265,187 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="8">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA012</v>
+      </c>
+      <c r="H12" s="8">
+        <v>78</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F11" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1012</v>
-      </c>
-      <c r="G11" t="s">
-        <v>465</v>
-      </c>
-      <c r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F13" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0100</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H13" s="8">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F12" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1013</v>
-      </c>
-      <c r="G12" t="s">
-        <v>465</v>
-      </c>
-      <c r="H12" s="2">
-        <v>28</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F14" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0100</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H14" s="8">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1014</v>
-      </c>
-      <c r="G13" t="s">
-        <v>464</v>
-      </c>
-      <c r="H13" s="2">
-        <v>28</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1014</v>
-      </c>
-      <c r="G14" t="s">
-        <v>464</v>
-      </c>
-      <c r="H14" s="2">
-        <v>28</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1001</v>
-      </c>
-      <c r="G15" t="s">
-        <v>462</v>
-      </c>
-      <c r="H15" s="2">
-        <v>40</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0100</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H15" s="8">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
         <v>306</v>
       </c>
-      <c r="B16" t="s">
-        <v>307</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="D16"/>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F16" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1002</v>
       </c>
+      <c r="G16"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5" t="s">
         <v>114</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
         <v>326</v>
       </c>
-      <c r="B17" t="s">
-        <v>327</v>
-      </c>
       <c r="C17">
         <v>0</v>
       </c>
+      <c r="D17"/>
       <c r="E17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F17" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1003</v>
       </c>
       <c r="G17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H17" s="2">
         <v>22</v>
@@ -2432,26 +2458,26 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>452</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F18" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1004</v>
       </c>
-      <c r="G18" t="s">
-        <v>459</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H18" s="8">
         <v>29</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2462,80 +2488,81 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>332</v>
-      </c>
-      <c r="B19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19">
+      <c r="A19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F19" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1005</v>
-      </c>
-      <c r="G19" t="s">
-        <v>461</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="F19" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1006</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H19" s="8">
         <v>19</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>93</v>
+      <c r="I19" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1006</v>
-      </c>
-      <c r="G20" t="s">
-        <v>460</v>
-      </c>
-      <c r="H20" s="2">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1011</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H20" s="8">
+        <v>16</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" t="s">
         <v>320</v>
       </c>
-      <c r="B21" t="s">
-        <v>321</v>
-      </c>
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="D21"/>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F21" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5039</v>
       </c>
       <c r="G21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2545,25 +2572,26 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" t="s">
         <v>255</v>
       </c>
-      <c r="B22" t="s">
-        <v>256</v>
-      </c>
       <c r="C22">
         <v>0</v>
       </c>
+      <c r="D22"/>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F22" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5057</v>
       </c>
       <c r="G22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H22" s="2">
         <v>46</v>
@@ -2575,25 +2603,26 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" t="s">
         <v>389</v>
       </c>
-      <c r="B23" t="s">
-        <v>390</v>
-      </c>
       <c r="C23">
         <v>0</v>
       </c>
+      <c r="D23"/>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F23" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H23" s="2">
         <v>46</v>
@@ -2605,25 +2634,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
+      <c r="D24"/>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F24" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H24" s="2">
         <v>46</v>
@@ -2635,25 +2665,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25"/>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F25" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H25" s="2">
         <v>46</v>
@@ -2665,25 +2696,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
+      <c r="D26"/>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F26" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H26" s="2">
         <v>46</v>
@@ -2695,25 +2727,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" t="s">
         <v>394</v>
       </c>
-      <c r="B27" t="s">
-        <v>395</v>
-      </c>
       <c r="C27">
         <v>0</v>
       </c>
+      <c r="D27"/>
       <c r="E27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F27" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059FB</v>
       </c>
       <c r="G27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -2723,25 +2756,26 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" t="s">
         <v>233</v>
       </c>
-      <c r="B28" t="s">
-        <v>234</v>
-      </c>
       <c r="C28">
         <v>0</v>
       </c>
+      <c r="D28"/>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F28" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H28" s="2">
         <v>37</v>
@@ -2753,25 +2787,26 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29"/>
       <c r="E29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F29" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H29" s="2">
         <v>37</v>
@@ -2783,25 +2818,26 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
+      <c r="D30"/>
       <c r="E30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F30" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H30" s="2">
         <v>37</v>
@@ -2813,25 +2849,26 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
+      <c r="D31"/>
       <c r="E31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F31" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H31" s="2">
         <v>37</v>
@@ -2843,25 +2880,26 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" t="s">
         <v>403</v>
       </c>
-      <c r="B32" t="s">
-        <v>404</v>
-      </c>
       <c r="C32">
         <v>0</v>
       </c>
+      <c r="D32"/>
       <c r="E32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F32" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5081</v>
       </c>
       <c r="G32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2873,25 +2911,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
+      <c r="D33"/>
       <c r="E33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F33" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5081</v>
       </c>
       <c r="G33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2903,25 +2942,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
         <v>226</v>
       </c>
-      <c r="B34" t="s">
-        <v>227</v>
-      </c>
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="D34"/>
       <c r="E34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F34" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5313</v>
       </c>
       <c r="G34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2933,25 +2973,26 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
         <v>228</v>
       </c>
-      <c r="B35" t="s">
-        <v>229</v>
-      </c>
       <c r="C35">
         <v>0</v>
       </c>
+      <c r="D35"/>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F35" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2963,25 +3004,26 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
+      <c r="D36"/>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F36" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2993,25 +3035,26 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
+      <c r="D37"/>
       <c r="E37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F37" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -3023,25 +3066,26 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
+      <c r="D38"/>
       <c r="E38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F38" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -3053,25 +3097,26 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B39" t="s">
         <v>360</v>
       </c>
-      <c r="B39" t="s">
-        <v>361</v>
-      </c>
       <c r="C39">
         <v>0</v>
       </c>
+      <c r="D39"/>
       <c r="E39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F39" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5317</v>
       </c>
       <c r="G39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H39" s="2">
         <v>46</v>
@@ -3081,25 +3126,26 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
         <v>216</v>
       </c>
-      <c r="B40" t="s">
-        <v>217</v>
-      </c>
       <c r="C40">
         <v>0</v>
       </c>
+      <c r="D40"/>
       <c r="E40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F40" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -3111,25 +3157,26 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
+      <c r="D41"/>
       <c r="E41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F41" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -3141,25 +3188,26 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
+      <c r="D42"/>
       <c r="E42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F42" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -3171,25 +3219,26 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
+      <c r="D43"/>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F43" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -3201,25 +3250,26 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" t="s">
         <v>406</v>
       </c>
-      <c r="B44" t="s">
-        <v>407</v>
-      </c>
       <c r="C44">
         <v>0</v>
       </c>
+      <c r="D44"/>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F44" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5328</v>
       </c>
       <c r="G44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H44" s="2">
         <v>37</v>
@@ -3231,25 +3281,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
         <v>214</v>
       </c>
-      <c r="B45" t="s">
-        <v>215</v>
-      </c>
       <c r="C45">
         <v>0</v>
       </c>
+      <c r="D45"/>
       <c r="E45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F45" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5330F</v>
       </c>
       <c r="G45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H45" s="2">
         <v>28</v>
@@ -3262,82 +3313,81 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46">
+      <c r="A46" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F46" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1012</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H46" s="8">
+        <v>16</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1013</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H47" s="8">
+        <v>28</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>447</v>
+      </c>
+      <c r="F48" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5337</v>
+      </c>
+      <c r="G48" t="s">
         <v>440</v>
-      </c>
-      <c r="H46" s="2">
-        <v>37</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>450</v>
-      </c>
-      <c r="F47" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G47" t="s">
-        <v>440</v>
-      </c>
-      <c r="H47" s="2">
-        <v>37</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" t="s">
-        <v>262</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>448</v>
-      </c>
-      <c r="F48" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
-      </c>
-      <c r="G48" t="s">
-        <v>441</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -3349,25 +3399,26 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
+      <c r="D49"/>
       <c r="E49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F49" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -3379,25 +3430,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
+      <c r="D50"/>
       <c r="E50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F50" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -3409,25 +3461,26 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
+      <c r="D51"/>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F51" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H51" s="2">
         <v>28</v>
@@ -3439,25 +3492,26 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" t="s">
         <v>245</v>
       </c>
-      <c r="B52" t="s">
-        <v>246</v>
-      </c>
       <c r="C52">
         <v>0</v>
       </c>
+      <c r="D52"/>
       <c r="E52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F52" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H52" s="2">
         <v>28</v>
@@ -3469,25 +3523,26 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
+      <c r="D53"/>
       <c r="E53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F53" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -3499,25 +3554,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
+      <c r="D54"/>
       <c r="E54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F54" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -3529,25 +3585,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
+      <c r="D55"/>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F55" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -3560,84 +3617,81 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>408</v>
-      </c>
-      <c r="B56" t="s">
-        <v>409</v>
-      </c>
-      <c r="C56">
+      <c r="A56" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C56" s="7">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>447</v>
-      </c>
-      <c r="F56" t="str">
+      <c r="E56" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F56" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1014</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H56" s="8">
+        <v>28</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F57" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1014</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H57" s="8">
+        <v>28</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="s">
+        <v>446</v>
+      </c>
+      <c r="F58" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
       </c>
-      <c r="G56" t="s">
-        <v>443</v>
-      </c>
-      <c r="H56" s="2">
-        <v>28</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>408</v>
-      </c>
-      <c r="B57" t="s">
-        <v>410</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>447</v>
-      </c>
-      <c r="F57" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
-      </c>
-      <c r="G57" t="s">
-        <v>443</v>
-      </c>
-      <c r="H57" s="2">
-        <v>28</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>408</v>
-      </c>
-      <c r="B58" t="s">
-        <v>411</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>447</v>
-      </c>
-      <c r="F58" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
-      </c>
       <c r="G58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H58" s="2">
         <v>37</v>
@@ -3649,25 +3703,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59" t="s">
         <v>378</v>
       </c>
-      <c r="B59" t="s">
-        <v>379</v>
-      </c>
       <c r="C59">
         <v>0</v>
       </c>
+      <c r="D59"/>
       <c r="E59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F59" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3679,25 +3734,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
+      <c r="D60"/>
       <c r="E60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F60" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3709,25 +3765,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
+      <c r="D61"/>
       <c r="E61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F61" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3739,25 +3796,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
+      <c r="D62"/>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F62" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3769,25 +3827,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
         <v>266</v>
       </c>
-      <c r="B63" t="s">
-        <v>267</v>
-      </c>
       <c r="C63">
         <v>0</v>
       </c>
+      <c r="D63"/>
       <c r="E63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F63" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H63" s="2">
         <v>46</v>
@@ -3799,25 +3858,26 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
+      <c r="D64"/>
       <c r="E64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F64" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H64" s="2">
         <v>46</v>
@@ -3829,25 +3889,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
+      <c r="D65"/>
       <c r="E65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F65" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H65" s="2">
         <v>46</v>
@@ -3859,25 +3920,26 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" t="s">
         <v>353</v>
       </c>
-      <c r="B66" t="s">
-        <v>354</v>
-      </c>
       <c r="C66">
         <v>0</v>
       </c>
+      <c r="D66"/>
       <c r="E66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F66" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5355</v>
       </c>
       <c r="G66" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H66" s="2">
         <v>46</v>
@@ -3889,25 +3951,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" t="s">
         <v>238</v>
       </c>
-      <c r="B67" t="s">
-        <v>239</v>
-      </c>
       <c r="C67">
         <v>0</v>
       </c>
+      <c r="D67"/>
       <c r="E67" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F67" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H67" s="2">
         <v>37</v>
@@ -3919,25 +3982,26 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
+      <c r="D68"/>
       <c r="E68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F68" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3949,25 +4013,26 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
+      <c r="D69"/>
       <c r="E69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F69" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3979,25 +4044,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
+      <c r="D70"/>
       <c r="E70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F70" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -4009,25 +4075,26 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" t="s">
         <v>270</v>
       </c>
-      <c r="B71" t="s">
-        <v>271</v>
-      </c>
       <c r="C71">
         <v>0</v>
       </c>
+      <c r="D71"/>
       <c r="E71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F71" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5361F</v>
       </c>
       <c r="G71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -4037,25 +4104,26 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" t="s">
         <v>272</v>
       </c>
-      <c r="B72" t="s">
-        <v>273</v>
-      </c>
       <c r="C72">
         <v>0</v>
       </c>
+      <c r="D72"/>
       <c r="E72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F72" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5366</v>
       </c>
       <c r="G72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H72" s="2">
         <v>46</v>
@@ -4067,25 +4135,26 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s">
         <v>221</v>
       </c>
-      <c r="B73" t="s">
-        <v>222</v>
-      </c>
       <c r="C73">
         <v>0</v>
       </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F73" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H73" s="2">
         <v>46</v>
@@ -4097,25 +4166,26 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
+      <c r="D74"/>
       <c r="E74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F74" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H74" s="2">
         <v>46</v>
@@ -4127,25 +4197,26 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
+      <c r="D75"/>
       <c r="E75" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F75" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H75" s="2">
         <v>46</v>
@@ -4158,54 +4229,55 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76">
+      <c r="A76" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C76" s="7">
         <v>1</v>
       </c>
-      <c r="E76" t="s">
-        <v>448</v>
-      </c>
-      <c r="F76" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G76" t="s">
-        <v>444</v>
-      </c>
-      <c r="H76" s="2">
-        <v>37</v>
+      <c r="E76" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F76" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1001</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H76" s="8">
+        <v>40</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>357</v>
+      </c>
+      <c r="B77" t="s">
         <v>358</v>
       </c>
-      <c r="B77" t="s">
-        <v>359</v>
-      </c>
       <c r="C77">
         <v>0</v>
       </c>
+      <c r="D77"/>
       <c r="E77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F77" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5390</v>
       </c>
       <c r="G77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -4217,25 +4289,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>273</v>
+      </c>
+      <c r="B78" t="s">
         <v>274</v>
       </c>
-      <c r="B78" t="s">
-        <v>275</v>
-      </c>
       <c r="C78">
         <v>0</v>
       </c>
+      <c r="D78"/>
       <c r="E78" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F78" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5391F</v>
       </c>
       <c r="G78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H78" s="2">
         <v>46</v>
@@ -4245,25 +4318,26 @@
       </c>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" t="s">
         <v>369</v>
       </c>
-      <c r="B79" t="s">
-        <v>370</v>
-      </c>
       <c r="C79">
         <v>0</v>
       </c>
+      <c r="D79"/>
       <c r="E79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F79" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H79" s="2">
         <v>46</v>
@@ -4275,25 +4349,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
+      <c r="D80"/>
       <c r="E80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F80" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H80" s="2">
         <v>46</v>
@@ -4305,25 +4380,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
+      <c r="D81"/>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F81" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G81" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H81" s="2">
         <v>46</v>
@@ -4335,25 +4411,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
+      <c r="D82"/>
       <c r="E82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F82" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H82" s="2">
         <v>46</v>
@@ -4365,25 +4442,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>375</v>
+      </c>
+      <c r="B83" t="s">
         <v>376</v>
       </c>
-      <c r="B83" t="s">
-        <v>377</v>
-      </c>
       <c r="C83">
         <v>0</v>
       </c>
+      <c r="D83"/>
       <c r="E83" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F83" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5393</v>
       </c>
       <c r="G83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -4393,25 +4471,26 @@
       </c>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" t="s">
         <v>209</v>
       </c>
-      <c r="B84" t="s">
-        <v>210</v>
-      </c>
       <c r="C84">
         <v>0</v>
       </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F84" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H84" s="2">
         <v>46</v>
@@ -4423,25 +4502,26 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
+      <c r="D85"/>
       <c r="E85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F85" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H85" s="2">
         <v>37</v>
@@ -4453,25 +4533,26 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
+      <c r="D86"/>
       <c r="E86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F86" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H86" s="2">
         <v>46</v>
@@ -4483,25 +4564,26 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
+      <c r="D87"/>
       <c r="E87" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F87" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H87" s="2">
         <v>46</v>
@@ -4513,25 +4595,26 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>373</v>
+      </c>
+      <c r="B88" t="s">
         <v>374</v>
       </c>
-      <c r="B88" t="s">
-        <v>375</v>
-      </c>
       <c r="C88">
         <v>0</v>
       </c>
+      <c r="D88"/>
       <c r="E88" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F88" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5403</v>
       </c>
       <c r="G88" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H88" s="2">
         <v>46</v>
@@ -4541,25 +4624,26 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" t="s">
         <v>398</v>
       </c>
-      <c r="B89" t="s">
-        <v>399</v>
-      </c>
       <c r="C89">
         <v>0</v>
       </c>
+      <c r="D89"/>
       <c r="E89" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F89" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -4571,25 +4655,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
+      <c r="D90"/>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F90" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -4601,25 +4686,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
+      <c r="D91"/>
       <c r="E91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F91" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -4631,25 +4717,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
+      <c r="D92"/>
       <c r="E92" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F92" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -4661,25 +4748,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
+      <c r="D93"/>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F93" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -4691,25 +4779,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
+      <c r="D94"/>
       <c r="E94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F94" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -4721,25 +4810,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" t="s">
         <v>257</v>
       </c>
-      <c r="B95" t="s">
-        <v>258</v>
-      </c>
       <c r="C95">
         <v>0</v>
       </c>
+      <c r="D95"/>
       <c r="E95" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F95" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5411</v>
       </c>
       <c r="G95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -4749,25 +4839,26 @@
       </c>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" t="s">
         <v>276</v>
       </c>
-      <c r="B96" t="s">
-        <v>277</v>
-      </c>
       <c r="C96">
         <v>0</v>
       </c>
+      <c r="D96"/>
       <c r="E96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F96" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5412B</v>
       </c>
       <c r="G96" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H96" s="2">
         <v>37</v>
@@ -4780,52 +4871,53 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>276</v>
-      </c>
-      <c r="B97" t="s">
-        <v>278</v>
-      </c>
-      <c r="C97">
+      <c r="A97" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="7">
         <v>1</v>
       </c>
-      <c r="E97" t="s">
-        <v>448</v>
-      </c>
-      <c r="F97" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
-      </c>
-      <c r="G97" t="s">
-        <v>440</v>
-      </c>
-      <c r="H97" s="2">
-        <v>28</v>
+      <c r="E97" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F97" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1005</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H97" s="8">
+        <v>19</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" t="s">
         <v>345</v>
       </c>
-      <c r="B98" t="s">
-        <v>346</v>
-      </c>
       <c r="C98">
         <v>0</v>
       </c>
+      <c r="D98"/>
       <c r="E98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F98" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G98" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H98" s="2">
         <v>46</v>
@@ -4837,25 +4929,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B99" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
+      <c r="D99"/>
       <c r="E99" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F99" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G99" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H99" s="2">
         <v>46</v>
@@ -4867,25 +4960,26 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
+      <c r="D100"/>
       <c r="E100" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F100" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H100" s="2">
         <v>46</v>
@@ -4897,25 +4991,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
+      <c r="D101"/>
       <c r="E101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F101" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H101" s="2">
         <v>46</v>
@@ -4927,25 +5022,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" t="s">
         <v>250</v>
       </c>
-      <c r="B102" t="s">
-        <v>251</v>
-      </c>
       <c r="C102">
         <v>0</v>
       </c>
+      <c r="D102"/>
       <c r="E102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F102" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4957,25 +5053,26 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
+      <c r="D103"/>
       <c r="E103" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F103" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4987,25 +5084,26 @@
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
+      <c r="D104"/>
       <c r="E104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F104" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -5017,25 +5115,26 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
+      <c r="D105"/>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F105" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G105" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -5047,25 +5146,26 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>300</v>
+      </c>
+      <c r="B106" t="s">
         <v>301</v>
       </c>
-      <c r="B106" t="s">
-        <v>302</v>
-      </c>
       <c r="C106">
         <v>0</v>
       </c>
+      <c r="D106"/>
       <c r="E106" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F106" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -5077,25 +5177,26 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" t="s">
         <v>301</v>
       </c>
-      <c r="B107" t="s">
-        <v>302</v>
-      </c>
       <c r="C107">
         <v>0</v>
       </c>
+      <c r="D107"/>
       <c r="E107" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F107" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -5107,25 +5208,26 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
+      <c r="D108"/>
       <c r="E108" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F108" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -5137,25 +5239,26 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
+      <c r="D109"/>
       <c r="E109" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F109" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G109" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -5167,25 +5270,26 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
+      <c r="D110"/>
       <c r="E110" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F110" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -5197,25 +5301,26 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" t="s">
         <v>310</v>
       </c>
-      <c r="B111" t="s">
-        <v>311</v>
-      </c>
       <c r="C111">
         <v>0</v>
       </c>
+      <c r="D111"/>
       <c r="E111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F111" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5423</v>
       </c>
       <c r="G111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H111" s="2">
         <v>46</v>
@@ -5227,25 +5332,26 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" t="s">
         <v>296</v>
       </c>
-      <c r="B112" t="s">
-        <v>297</v>
-      </c>
       <c r="C112">
         <v>0</v>
       </c>
+      <c r="D112"/>
       <c r="E112" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F112" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G112" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -5257,25 +5363,26 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
+      <c r="D113"/>
       <c r="E113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F113" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -5287,25 +5394,26 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
+      <c r="D114"/>
       <c r="E114" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F114" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G114" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -5317,25 +5425,26 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
+      <c r="D115"/>
       <c r="E115" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F115" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G115" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -5347,25 +5456,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" t="s">
         <v>243</v>
       </c>
-      <c r="B116" t="s">
-        <v>244</v>
-      </c>
       <c r="C116">
         <v>0</v>
       </c>
+      <c r="D116"/>
       <c r="E116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F116" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5427F</v>
       </c>
       <c r="G116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -5377,25 +5487,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>361</v>
+      </c>
+      <c r="B117" t="s">
         <v>362</v>
       </c>
-      <c r="B117" t="s">
-        <v>363</v>
-      </c>
       <c r="C117">
         <v>0</v>
       </c>
+      <c r="D117"/>
       <c r="E117" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F117" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -5407,25 +5518,26 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
+      <c r="D118"/>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F118" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -5437,25 +5549,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
+      <c r="D119"/>
       <c r="E119" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F119" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -5467,25 +5580,26 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
+      <c r="D120"/>
       <c r="E120" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F120" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -5497,25 +5611,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" t="s">
         <v>285</v>
       </c>
-      <c r="B121" t="s">
-        <v>286</v>
-      </c>
       <c r="C121">
         <v>0</v>
       </c>
+      <c r="D121"/>
       <c r="E121" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F121" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5436P</v>
       </c>
       <c r="G121" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H121" s="2">
         <v>46</v>
@@ -5527,25 +5642,26 @@
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" t="s">
         <v>355</v>
       </c>
-      <c r="B122" t="s">
-        <v>356</v>
-      </c>
       <c r="C122">
         <v>0</v>
       </c>
+      <c r="D122"/>
       <c r="E122" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F122" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5437</v>
       </c>
       <c r="G122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -5557,25 +5673,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
+      <c r="D123"/>
       <c r="E123" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F123" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5437</v>
       </c>
       <c r="G123" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -5587,25 +5704,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" t="s">
         <v>279</v>
       </c>
-      <c r="B124" t="s">
-        <v>280</v>
-      </c>
       <c r="C124">
         <v>0</v>
       </c>
+      <c r="D124"/>
       <c r="E124" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F124" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5438B</v>
       </c>
       <c r="G124" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H124" s="2">
         <v>46</v>
@@ -5615,25 +5733,26 @@
       </c>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" t="s">
         <v>281</v>
       </c>
-      <c r="B125" t="s">
-        <v>282</v>
-      </c>
       <c r="C125">
         <v>0</v>
       </c>
+      <c r="D125"/>
       <c r="E125" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F125" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5438P</v>
       </c>
       <c r="G125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H125" s="2">
         <v>46</v>
@@ -5645,25 +5764,26 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" t="s">
         <v>324</v>
       </c>
-      <c r="B126" t="s">
-        <v>325</v>
-      </c>
       <c r="C126">
         <v>0</v>
       </c>
+      <c r="D126"/>
       <c r="E126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F126" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5440</v>
       </c>
       <c r="G126" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H126" s="2">
         <v>28</v>
@@ -5673,25 +5793,26 @@
       </c>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>311</v>
+      </c>
+      <c r="B127" t="s">
         <v>312</v>
       </c>
-      <c r="B127" t="s">
-        <v>313</v>
-      </c>
       <c r="C127">
         <v>0</v>
       </c>
+      <c r="D127"/>
       <c r="E127" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F127" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5442</v>
       </c>
       <c r="G127" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H127" s="2">
         <v>46</v>
@@ -5703,25 +5824,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>282</v>
+      </c>
+      <c r="B128" t="s">
         <v>283</v>
       </c>
-      <c r="B128" t="s">
-        <v>284</v>
-      </c>
       <c r="C128">
         <v>0</v>
       </c>
+      <c r="D128"/>
       <c r="E128" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F128" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5445B</v>
       </c>
       <c r="G128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5731,25 +5853,26 @@
       </c>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" t="s">
         <v>287</v>
       </c>
-      <c r="B129" t="s">
-        <v>288</v>
-      </c>
       <c r="C129">
         <v>0</v>
       </c>
+      <c r="D129"/>
       <c r="E129" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F129" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5455F</v>
       </c>
       <c r="G129" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5761,23 +5884,25 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" t="s">
         <v>308</v>
       </c>
-      <c r="B130" t="s">
-        <v>309</v>
-      </c>
       <c r="C130">
         <v>0</v>
       </c>
+      <c r="D130"/>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F130" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6004</v>
       </c>
+      <c r="G130"/>
       <c r="H130" s="2">
         <v>40</v>
       </c>
@@ -5788,23 +5913,25 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>366</v>
+      </c>
+      <c r="B131" t="s">
         <v>367</v>
       </c>
-      <c r="B131" t="s">
-        <v>368</v>
-      </c>
       <c r="C131">
         <v>0</v>
       </c>
+      <c r="D131"/>
       <c r="E131" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F131" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6005</v>
       </c>
+      <c r="G131"/>
       <c r="H131" s="2"/>
       <c r="I131" s="6" t="s">
         <v>64</v>
@@ -5813,138 +5940,150 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>413</v>
+      </c>
+      <c r="B132" t="s">
         <v>414</v>
       </c>
-      <c r="B132" t="s">
-        <v>415</v>
-      </c>
       <c r="C132">
         <v>0</v>
       </c>
+      <c r="D132"/>
       <c r="E132" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F132" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6006</v>
       </c>
+      <c r="G132"/>
       <c r="H132" s="2"/>
       <c r="I132" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B133" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
+      <c r="D133"/>
       <c r="E133" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F133" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6006</v>
       </c>
+      <c r="G133"/>
       <c r="H133" s="2"/>
       <c r="I133" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B134" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
+      <c r="D134"/>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F134" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6006</v>
       </c>
+      <c r="G134"/>
       <c r="H134" s="2"/>
       <c r="I134" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
+      <c r="D135"/>
       <c r="E135" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F135" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6006</v>
       </c>
+      <c r="G135"/>
       <c r="H135" s="2"/>
       <c r="I135" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B136" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
+      <c r="D136"/>
       <c r="E136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F136" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6006</v>
       </c>
+      <c r="G136"/>
       <c r="H136" s="2"/>
       <c r="I136" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>411</v>
+      </c>
+      <c r="B137" t="s">
         <v>412</v>
       </c>
-      <c r="B137" t="s">
-        <v>413</v>
-      </c>
       <c r="C137">
         <v>0</v>
       </c>
+      <c r="D137"/>
       <c r="E137" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F137" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6007</v>
       </c>
+      <c r="G137"/>
       <c r="H137" s="2">
         <v>39</v>
       </c>
@@ -5955,23 +6094,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>321</v>
+      </c>
+      <c r="B138" t="s">
         <v>322</v>
       </c>
-      <c r="B138" t="s">
-        <v>323</v>
-      </c>
       <c r="C138">
         <v>0</v>
       </c>
+      <c r="D138"/>
       <c r="E138" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F138" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6008</v>
       </c>
+      <c r="G138"/>
       <c r="H138" s="2">
         <v>59</v>
       </c>
@@ -5983,140 +6124,144 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C139" s="7">
+        <v>1</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F139" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6010</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H139" s="8">
+        <v>50</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C140" s="7">
+        <v>1</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F140" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H140" s="8">
+        <v>28</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C141" s="7">
+        <v>1</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F141" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H141" s="8">
+        <v>28</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B139" t="s">
-        <v>397</v>
-      </c>
-      <c r="C139">
+      <c r="C142" s="7">
         <v>1</v>
       </c>
-      <c r="E139" t="s">
-        <v>447</v>
-      </c>
-      <c r="F139" t="str">
+      <c r="E142" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F142" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6009</v>
       </c>
-      <c r="G139" t="s">
-        <v>470</v>
-      </c>
-      <c r="H139" s="2">
+      <c r="G142" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H142" s="8">
         <v>19</v>
       </c>
-      <c r="I139" s="6" t="s">
+      <c r="I142" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J139" s="3"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>350</v>
-      </c>
-      <c r="B140" t="s">
-        <v>351</v>
-      </c>
-      <c r="C140">
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C143" s="7">
         <v>1</v>
       </c>
-      <c r="E140" t="s">
-        <v>453</v>
-      </c>
-      <c r="F140" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6010</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="E143" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F143" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA002</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H140" s="2">
-        <v>50</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>294</v>
-      </c>
-      <c r="B141" t="s">
-        <v>295</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="E141" t="s">
-        <v>448</v>
-      </c>
-      <c r="F141" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G141" t="s">
-        <v>442</v>
-      </c>
-      <c r="H141" s="2">
-        <v>15</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J141" s="3"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>432</v>
-      </c>
-      <c r="B142" t="s">
-        <v>433</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="E142" t="s">
-        <v>449</v>
-      </c>
-      <c r="F142" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA001</v>
-      </c>
-      <c r="G142" t="s">
-        <v>476</v>
-      </c>
-      <c r="H142" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J142" s="4"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>383</v>
-      </c>
-      <c r="B143" t="s">
-        <v>384</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
-        <v>447</v>
-      </c>
-      <c r="F143" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA002</v>
-      </c>
-      <c r="G143" t="s">
-        <v>467</v>
-      </c>
-      <c r="H143" s="2">
+      <c r="H143" s="8">
         <v>89</v>
       </c>
       <c r="I143" s="6" t="s">
@@ -6125,26 +6270,26 @@
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B144" t="s">
-        <v>388</v>
-      </c>
-      <c r="C144">
+      <c r="C144" s="7">
         <v>1</v>
       </c>
-      <c r="E144" t="s">
-        <v>447</v>
-      </c>
-      <c r="F144" t="str">
+      <c r="E144" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F144" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA003</v>
       </c>
-      <c r="G144" t="s">
-        <v>469</v>
-      </c>
-      <c r="H144" s="2">
+      <c r="G144" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H144" s="8">
         <v>89</v>
       </c>
       <c r="I144" s="6" t="s">
@@ -6153,26 +6298,26 @@
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B145" t="s">
-        <v>386</v>
-      </c>
-      <c r="C145">
+      <c r="C145" s="7">
         <v>1</v>
       </c>
-      <c r="E145" t="s">
-        <v>447</v>
-      </c>
-      <c r="F145" t="str">
+      <c r="E145" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F145" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA004</v>
       </c>
-      <c r="G145" t="s">
-        <v>468</v>
-      </c>
-      <c r="H145" s="2">
+      <c r="G145" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H145" s="8">
         <v>168</v>
       </c>
       <c r="I145" s="6" t="s">
@@ -6181,238 +6326,241 @@
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F146" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA001</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H146" s="8">
+        <v>78</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C147" s="7">
+        <v>1</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F147" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA005</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H147" s="8">
+        <v>145</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C148" s="7">
+        <v>1</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F148" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA006</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H148" s="8">
+        <v>123</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C149" s="7">
+        <v>1</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F149" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA007</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H149" s="8">
+        <v>179</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C150" s="7">
+        <v>1</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F150" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA008</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H150" s="8">
+        <v>145</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="3"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C146">
+      <c r="B151" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C151" s="7">
         <v>1</v>
       </c>
-      <c r="E146" t="s">
-        <v>449</v>
-      </c>
-      <c r="F146" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA005</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="E151" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F151" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA009</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="H146" s="2">
-        <v>145</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J146" s="3"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>426</v>
-      </c>
-      <c r="B147" t="s">
-        <v>427</v>
-      </c>
-      <c r="C147">
+      <c r="H151" s="8">
+        <v>111</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" s="7">
         <v>1</v>
       </c>
-      <c r="E147" t="s">
-        <v>449</v>
-      </c>
-      <c r="F147" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA006</v>
-      </c>
-      <c r="G147" t="s">
-        <v>473</v>
-      </c>
-      <c r="H147" s="2">
-        <v>123</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J147" s="3"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>420</v>
-      </c>
-      <c r="B148" t="s">
-        <v>421</v>
-      </c>
-      <c r="C148">
+      <c r="E152" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F152" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA010</v>
+      </c>
+      <c r="H152" s="8">
+        <v>100</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C153" s="7">
         <v>1</v>
       </c>
-      <c r="E148" t="s">
-        <v>449</v>
-      </c>
-      <c r="F148" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA007</v>
-      </c>
-      <c r="G148" t="s">
-        <v>471</v>
-      </c>
-      <c r="H148" s="2">
-        <v>179</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J148" s="3"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>422</v>
-      </c>
-      <c r="B149" t="s">
-        <v>423</v>
-      </c>
-      <c r="C149">
+      <c r="E153" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F153" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA011</v>
+      </c>
+      <c r="H153" s="8">
+        <v>100</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C154" s="7">
         <v>1</v>
       </c>
-      <c r="E149" t="s">
-        <v>449</v>
-      </c>
-      <c r="F149" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA008</v>
-      </c>
-      <c r="G149" t="s">
-        <v>472</v>
-      </c>
-      <c r="H149" s="2">
-        <v>145</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J149" s="3"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>430</v>
-      </c>
-      <c r="B150" t="s">
-        <v>431</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="E150" t="s">
-        <v>449</v>
-      </c>
-      <c r="F150" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA009</v>
-      </c>
-      <c r="G150" t="s">
-        <v>475</v>
-      </c>
-      <c r="H150" s="2">
-        <v>111</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J150" s="3"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>424</v>
-      </c>
-      <c r="B151" t="s">
-        <v>425</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="E151" t="s">
-        <v>449</v>
-      </c>
-      <c r="F151" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA010</v>
-      </c>
-      <c r="H151" s="2">
-        <v>100</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J151" s="3"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>438</v>
-      </c>
-      <c r="B152" t="s">
-        <v>439</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>449</v>
-      </c>
-      <c r="F152" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA011</v>
-      </c>
-      <c r="H152" s="2">
-        <v>100</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J152" s="3"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>259</v>
-      </c>
-      <c r="B153" t="s">
-        <v>260</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="E154" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F153" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA012</v>
-      </c>
-      <c r="H153" s="2">
-        <v>78</v>
-      </c>
-      <c r="I153" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J153" s="3"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>434</v>
-      </c>
-      <c r="B154" t="s">
-        <v>435</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>449</v>
-      </c>
-      <c r="F154" t="str">
+      <c r="F154" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA013</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154" s="8">
         <v>78</v>
       </c>
       <c r="I154" s="3" t="s">
@@ -6421,26 +6569,26 @@
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B155" t="s">
-        <v>437</v>
-      </c>
-      <c r="C155">
+      <c r="C155" s="7">
         <v>1</v>
       </c>
-      <c r="E155" t="s">
-        <v>449</v>
-      </c>
-      <c r="F155" t="str">
+      <c r="E155" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F155" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA014</v>
       </c>
-      <c r="G155" t="s">
-        <v>472</v>
-      </c>
-      <c r="H155" s="2">
+      <c r="G155" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H155" s="8">
         <v>55</v>
       </c>
       <c r="I155" s="3" t="s">

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE9017-0628-45B2-BA40-3E4C4C9AFF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EA37D-60D3-4452-B30B-D8E2B9479351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1965,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,7 +1974,7 @@
     <col min="1" max="1" width="10.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11" style="7" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="7" customWidth="1"/>
@@ -2080,7 +2080,7 @@
         <v>289</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>447</v>
@@ -2272,7 +2272,7 @@
         <v>294</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>447</v>
@@ -2300,7 +2300,7 @@
         <v>259</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>447</v>
@@ -2325,7 +2325,7 @@
         <v>314</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>451</v>
@@ -2353,7 +2353,7 @@
         <v>315</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>451</v>
@@ -2381,7 +2381,7 @@
         <v>316</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>451</v>
@@ -2465,7 +2465,7 @@
         <v>328</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>451</v>
@@ -2536,7 +2536,7 @@
         <v>462</v>
       </c>
       <c r="H20" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>90</v>
@@ -3333,7 +3333,7 @@
         <v>464</v>
       </c>
       <c r="H46" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>88</v>
@@ -4236,7 +4236,7 @@
         <v>334</v>
       </c>
       <c r="C76" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>450</v>
@@ -6131,7 +6131,7 @@
         <v>350</v>
       </c>
       <c r="C139" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>452</v>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EA37D-60D3-4452-B30B-D8E2B9479351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C254ED4-1013-43C5-8259-E125C078F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1965,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C254ED4-1013-43C5-8259-E125C078F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4AA42-2470-4836-9C0E-B62251066952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="493">
   <si>
     <t>CODIGO</t>
   </si>
@@ -416,9 +416,6 @@
     <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0103_svzuhl.mp4</t>
   </si>
   <si>
-    <t>https://canary.contestimg.wish.com/api/webimage/5943a5490b4571468dff89fb-large.jpg?cache_buster=cb361c2a334b026a2582e90c8bfe1804</t>
-  </si>
-  <si>
     <t>https://ae01.alicdn.com/kf/S648edc9c082047588679f1d083c2d4f49.jpg</t>
   </si>
   <si>
@@ -917,9 +914,6 @@
     <t>KT6011</t>
   </si>
   <si>
-    <t>Beetle Classic</t>
-  </si>
-  <si>
     <t>KT5425</t>
   </si>
   <si>
@@ -1470,6 +1464,54 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_966809-CBT80832894635_112024-O-kinsmart-juego-de-45-1932-ford-coupe-de-3-ventanas-juguete.webp</t>
+  </si>
+  <si>
+    <t>COLECCIONABLE</t>
+  </si>
+  <si>
+    <t>Pegatina</t>
+  </si>
+  <si>
+    <t>Beetle Classic Rojo</t>
+  </si>
+  <si>
+    <t>Beetle Classic Amarillo</t>
+  </si>
+  <si>
+    <t>Beetle Classic Azul</t>
+  </si>
+  <si>
+    <t>Beetle Classic Negro</t>
+  </si>
+  <si>
+    <t>Beetle Classic Rosado</t>
+  </si>
+  <si>
+    <t>https://sc04.alicdn.com/kf/Ha08ceb73583943a098141dae3f4c407dl/267859666/Ha08ceb73583943a098141dae3f4c407dl.jpg</t>
+  </si>
+  <si>
+    <t>https://sc04.alicdn.com/kf/H5b024907bf234af781e606262d312225D/267859666/H5b024907bf234af781e606262d312225D.jpg</t>
+  </si>
+  <si>
+    <t>https://sc04.alicdn.com/kf/H10af45fe93a948e3a00626aeb5e8714cG/267859666/H10af45fe93a948e3a00626aeb5e8714cG.jpg</t>
+  </si>
+  <si>
+    <t>https://sc04.alicdn.com/kf/H1fac81f7fab34c1185cc07612d4d46f47/267859666/H1fac81f7fab34c1185cc07612d4d46f47.jpg</t>
+  </si>
+  <si>
+    <t>Beetle Classic Blanco</t>
+  </si>
+  <si>
+    <t>https://s.alicdn.com/@sc04/kf/Hbaf18917990a4f72b3df35b06e621c86z.jpg?avif=close&amp;webp=close</t>
+  </si>
+  <si>
+    <t>https://s.alicdn.com/@sc04/kf/Hb562e8caece54810a61a606d3c45a988g.jpg?avif=close&amp;webp=close</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000909360447/p/1/e/6/t/10301/5000141454647.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -1646,19 +1688,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J155" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:J155" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K160" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:K160" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
+        <filter val="10"/>
         <filter val="2"/>
+        <filter val="3"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J155">
-    <sortCondition ref="E1:E155"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J160">
+    <sortCondition ref="A1:A160"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO"/>
     <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION"/>
     <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK"/>
@@ -1671,6 +1716,7 @@
     <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN"/>
     <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL"/>
+    <tableColumn id="11" xr3:uid="{DD22C7D1-47EF-4A3F-A794-5A144B1E672B}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1963,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +2028,7 @@
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,1207 +2059,1245 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="F2" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
+        <v>AD0100</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="H2" s="8">
-        <v>37</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H3" s="8">
-        <v>37</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0101</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059</v>
+      </c>
+      <c r="G3" t="s">
         <v>454</v>
       </c>
-      <c r="H4" s="8">
-        <v>12</v>
+      <c r="H3" s="2">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059</v>
+      </c>
+      <c r="G4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H4" s="2">
+        <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H5" s="8">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5059</v>
+      </c>
+      <c r="G5" t="s">
+        <v>454</v>
+      </c>
+      <c r="H5" s="2">
+        <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0101</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" s="2"/>
+        <v>KT5059</v>
+      </c>
+      <c r="G6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H6" s="2">
+        <v>46</v>
+      </c>
       <c r="I6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1009</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>KT5059FB</v>
+      </c>
+      <c r="G7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1010</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>KT5440</v>
+      </c>
+      <c r="G8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>AD0100</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H9" s="8">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F10" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5057</v>
+      </c>
+      <c r="G10" t="s">
         <v>439</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="2">
+        <v>46</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F11" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G11" t="s">
+        <v>439</v>
+      </c>
+      <c r="H11" s="2">
+        <v>37</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F12" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G12" t="s">
+        <v>439</v>
+      </c>
+      <c r="H12" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H13" s="2">
+        <v>37</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5060</v>
+      </c>
+      <c r="G14" t="s">
+        <v>439</v>
+      </c>
+      <c r="H14" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5330F</v>
+      </c>
+      <c r="G15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H15" s="2">
         <v>28</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1011</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" s="2">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H11" s="8">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA012</v>
-      </c>
-      <c r="H12" s="8">
-        <v>78</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H13" s="8">
-        <v>19</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H14" s="8">
-        <v>19</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H15" s="8">
-        <v>19</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16"/>
-      <c r="E16" t="s">
-        <v>447</v>
+      <c r="E16" s="7" t="s">
+        <v>477</v>
       </c>
       <c r="F16" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1002</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>KT5361F</v>
+      </c>
+      <c r="G16" t="s">
+        <v>439</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17"/>
-      <c r="E17" t="s">
-        <v>451</v>
+      <c r="E17" s="7" t="s">
+        <v>477</v>
       </c>
       <c r="F17" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1003</v>
+        <v>KT5366</v>
       </c>
       <c r="G17" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="H17" s="2">
-        <v>22</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
-      </c>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18"/>
       <c r="E18" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1004</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H18" s="8">
-        <v>29</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>96</v>
+        <v>477</v>
+      </c>
+      <c r="F18" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5427F</v>
+      </c>
+      <c r="G18" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1006</v>
+        <v>AD0100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H19" s="8">
         <v>19</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0101</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H20" s="8">
+        <v>12</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F20" s="7" t="str">
+      <c r="E21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1011</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G21" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H21" s="8">
         <v>19</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" t="s">
-        <v>451</v>
-      </c>
-      <c r="F21" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5039</v>
-      </c>
-      <c r="G21" t="s">
-        <v>442</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F22" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5057</v>
+        <v>KT5316</v>
       </c>
       <c r="G22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H22" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F23" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5316</v>
       </c>
       <c r="G23" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="H23" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>229</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F24" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5316</v>
       </c>
       <c r="G24" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="H24" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>391</v>
+        <v>230</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F25" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5316</v>
       </c>
       <c r="G25" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="H25" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B26" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F26" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059</v>
+        <v>KT5390</v>
       </c>
       <c r="G26" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="H26" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>256</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F27" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5059FB</v>
+        <v>KT5411</v>
       </c>
       <c r="G27" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F28" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5412B</v>
       </c>
       <c r="G28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H28" s="2">
         <v>37</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F29" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5419</v>
       </c>
       <c r="G29" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H29" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F30" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5419</v>
       </c>
       <c r="G30" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H30" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F31" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5060</v>
+        <v>KT5419</v>
       </c>
       <c r="G31" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H31" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>402</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F32" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5081</v>
+        <v>KT5419</v>
       </c>
       <c r="G32" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F33" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5081</v>
+        <v>KT5419</v>
       </c>
       <c r="G33" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>33</v>
+      <c r="I33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F34" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5313</v>
+        <v>KT5438B</v>
       </c>
       <c r="G34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F35" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5438P</v>
       </c>
       <c r="G35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F36" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5445B</v>
       </c>
       <c r="G36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F37" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5039</v>
       </c>
       <c r="G37" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="I37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F38" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5316</v>
+        <v>KT5081</v>
       </c>
       <c r="G38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F39" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5317</v>
+        <v>KT5081</v>
       </c>
       <c r="G39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H39" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F40" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5319</v>
+        <v>KT5317</v>
       </c>
       <c r="G40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
         <v>215</v>
-      </c>
-      <c r="B41" t="s">
-        <v>217</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F41" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G41" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F42" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>195</v>
@@ -3221,170 +3305,176 @@
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F43" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G43" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>406</v>
+        <v>218</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F44" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5328</v>
+        <v>KT5319</v>
       </c>
       <c r="G44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H44" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F45" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5330F</v>
+        <v>KT5328</v>
       </c>
       <c r="G45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H45" s="2">
+        <v>37</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>444</v>
+      </c>
+      <c r="F46" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>440</v>
+      </c>
+      <c r="H46" s="2">
+        <v>37</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F46" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1012</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H46" s="8">
-        <v>19</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F47" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1013</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H47" s="8">
-        <v>28</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" s="4"/>
+      <c r="J46" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>444</v>
+      </c>
+      <c r="F47" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5349</v>
+      </c>
+      <c r="G47" t="s">
+        <v>440</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F48" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5349</v>
       </c>
       <c r="G48" t="s">
         <v>440</v>
@@ -3393,29 +3483,29 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F49" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5349</v>
       </c>
       <c r="G49" t="s">
         <v>440</v>
@@ -3424,29 +3514,29 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F50" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5349</v>
       </c>
       <c r="G50" t="s">
         <v>440</v>
@@ -3455,1641 +3545,1646 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>152</v>
+        <v>52</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F51" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5337</v>
+        <v>KT5352</v>
       </c>
       <c r="G51" t="s">
         <v>440</v>
       </c>
       <c r="H51" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F52" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5352</v>
       </c>
       <c r="G52" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H52" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F53" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5352</v>
       </c>
       <c r="G53" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F54" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5358</v>
       </c>
       <c r="G54" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F55" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5341</v>
+        <v>KT5358</v>
       </c>
       <c r="G55" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F56" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1014</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H56" s="8">
-        <v>28</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F57" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1014</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H57" s="8">
-        <v>28</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J57" s="4"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" t="s">
+        <v>445</v>
+      </c>
+      <c r="F56" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5358</v>
+      </c>
+      <c r="G56" t="s">
+        <v>440</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="s">
+        <v>445</v>
+      </c>
+      <c r="F57" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5358</v>
+      </c>
+      <c r="G57" t="s">
+        <v>440</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F58" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>KT5392</v>
       </c>
       <c r="G58" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H58" s="2">
-        <v>37</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F59" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5392</v>
       </c>
       <c r="G59" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F60" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5392</v>
       </c>
       <c r="G60" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B61" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F61" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5392</v>
       </c>
       <c r="G61" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F62" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5349</v>
+        <v>KT5393</v>
       </c>
       <c r="G62" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F63" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
+        <v>KT5403</v>
       </c>
       <c r="G63" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H63" s="2">
         <v>46</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>396</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F64" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
+        <v>KT5408</v>
       </c>
       <c r="G64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H64" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>397</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F65" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5352</v>
+        <v>KT5408</v>
       </c>
       <c r="G65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H65" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F66" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5355</v>
+        <v>KT5408</v>
       </c>
       <c r="G66" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H66" s="2">
-        <v>46</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F67" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5408</v>
       </c>
       <c r="G67" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="J67" s="3" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F68" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5408</v>
       </c>
       <c r="G68" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
       <c r="B69" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F69" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5408</v>
       </c>
       <c r="G69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F70" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5358</v>
+        <v>KT5428</v>
       </c>
       <c r="G70" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F71" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5361F</v>
+        <v>KT5428</v>
       </c>
       <c r="G71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J71" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F72" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5366</v>
+        <v>KT5428</v>
       </c>
       <c r="G72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H72" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>363</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F73" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
+        <v>KT5428</v>
       </c>
       <c r="G73" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H73" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74"/>
-      <c r="E74" t="s">
-        <v>447</v>
-      </c>
-      <c r="F74" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G74" t="s">
-        <v>443</v>
-      </c>
-      <c r="H74" s="2">
-        <v>46</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>220</v>
-      </c>
-      <c r="B75" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75" t="s">
-        <v>447</v>
-      </c>
-      <c r="F75" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G75" t="s">
-        <v>443</v>
-      </c>
-      <c r="H75" s="2">
-        <v>46</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C76" s="7">
-        <v>2</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F76" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1001</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H76" s="8">
-        <v>40</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F74" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1012</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H74" s="8">
+        <v>19</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F75" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1013</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H75" s="8">
+        <v>28</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>243</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5341</v>
+      </c>
+      <c r="G76" t="s">
+        <v>442</v>
+      </c>
+      <c r="H76" s="2">
+        <v>28</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F77" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5390</v>
+        <v>KT5341</v>
       </c>
       <c r="G77" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F78" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5391F</v>
+        <v>KT5341</v>
       </c>
       <c r="G78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H78" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J78" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>368</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F79" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5341</v>
       </c>
       <c r="G79" t="s">
         <v>442</v>
       </c>
       <c r="H79" s="2">
-        <v>46</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>368</v>
-      </c>
-      <c r="B80" t="s">
-        <v>370</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80" t="s">
-        <v>446</v>
-      </c>
-      <c r="F80" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
-      </c>
-      <c r="G80" t="s">
-        <v>442</v>
-      </c>
-      <c r="H80" s="2">
-        <v>46</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F80" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1014</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H80" s="8">
+        <v>28</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B81" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F81" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5355</v>
       </c>
       <c r="G81" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H81" s="2">
         <v>46</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>60</v>
+      <c r="I81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="B82" t="s">
-        <v>372</v>
+        <v>220</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F82" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5392</v>
+        <v>KT5385</v>
       </c>
       <c r="G82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H82" s="2">
         <v>46</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83"/>
       <c r="E83" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F83" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5393</v>
+        <v>KT5385</v>
       </c>
       <c r="G83" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J83" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84"/>
       <c r="E84" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F84" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5402</v>
+        <v>KT5385</v>
       </c>
       <c r="G84" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H84" s="2">
         <v>46</v>
       </c>
-      <c r="I84" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>203</v>
+      <c r="I84" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F85" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5402</v>
+        <v>KT5391F</v>
       </c>
       <c r="G85" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H85" s="2">
-        <v>37</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>202</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>343</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86"/>
       <c r="E86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F86" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5402</v>
+        <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G86" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H86" s="2">
         <v>46</v>
       </c>
-      <c r="I86" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>201</v>
+      <c r="I86" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87"/>
       <c r="E87" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F87" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5402</v>
+        <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G87" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H87" s="2">
         <v>46</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>200</v>
+      <c r="I87" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="B88" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88"/>
       <c r="E88" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F88" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5403</v>
+        <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H88" s="2">
         <v>46</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J88" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="B89" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89"/>
       <c r="E89" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F89" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H89" s="2">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90"/>
       <c r="E90" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F90" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5423</v>
       </c>
       <c r="G90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H90" s="2">
-        <v>0</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91"/>
       <c r="E91" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F91" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5425</v>
       </c>
       <c r="G91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92"/>
       <c r="E92" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F92" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5425</v>
       </c>
       <c r="G92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="B93" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F93" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5425</v>
       </c>
       <c r="G93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
-        <v>401</v>
+        <v>297</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F94" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5408</v>
+        <v>KT5425</v>
       </c>
       <c r="G94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95"/>
       <c r="E95" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F95" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5411</v>
+        <v>KT5437</v>
       </c>
       <c r="G95" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J95" s="3"/>
+      <c r="I95" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F96" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
+        <v>KT5437</v>
       </c>
       <c r="G96" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H96" s="2">
-        <v>37</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C97" s="7">
-        <v>1</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F97" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1005</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H97" s="8">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" t="s">
+        <v>449</v>
+      </c>
+      <c r="F97" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5442</v>
+      </c>
+      <c r="G97" t="s">
+        <v>441</v>
+      </c>
+      <c r="H97" s="2">
+        <v>46</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J97" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98"/>
       <c r="E98" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F98" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v xml:space="preserve">KT5416 </v>
+        <v>KT5455F</v>
       </c>
       <c r="G98" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H98" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F99" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v xml:space="preserve">KT5416 </v>
+        <v>KT5313</v>
       </c>
       <c r="G99" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H99" s="2">
-        <v>46</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F100" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v xml:space="preserve">KT5416 </v>
+        <v>KT5337</v>
       </c>
       <c r="G100" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H100" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>261</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101"/>
       <c r="E101" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F101" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v xml:space="preserve">KT5416 </v>
+        <v>KT5337</v>
       </c>
       <c r="G101" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H101" s="2">
-        <v>46</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102"/>
       <c r="E102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F102" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5337</v>
       </c>
       <c r="G102" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103"/>
       <c r="E103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F103" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5337</v>
       </c>
       <c r="G103" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H103" s="2">
-        <v>0</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>162</v>
+        <v>28</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5100,27 +5195,27 @@
       </c>
       <c r="F104" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5402</v>
       </c>
       <c r="G104" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H104" s="2">
-        <v>0</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>161</v>
+        <v>46</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -5131,27 +5226,27 @@
       </c>
       <c r="F105" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5418</v>
+        <v>KT5402</v>
       </c>
       <c r="G105" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H105" s="2">
-        <v>0</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>159</v>
+        <v>37</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -5162,1003 +5257,956 @@
       </c>
       <c r="F106" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5402</v>
       </c>
       <c r="G106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H106" s="2">
-        <v>0</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>121</v>
+        <v>46</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107"/>
       <c r="E107" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F107" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5402</v>
       </c>
       <c r="G107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H107" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108"/>
       <c r="E108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F108" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5418</v>
       </c>
       <c r="G108" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109"/>
       <c r="E109" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F109" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5418</v>
       </c>
       <c r="G109" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
       </c>
-      <c r="I109" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>117</v>
+      <c r="I109" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F110" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5419</v>
+        <v>KT5418</v>
       </c>
       <c r="G110" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="I110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>115</v>
+      <c r="I110" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F111" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5423</v>
+        <v>KT5418</v>
       </c>
       <c r="G111" t="s">
         <v>443</v>
       </c>
       <c r="H111" s="2">
-        <v>46</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B112" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F112" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
+        <v>KT5436P</v>
       </c>
       <c r="G112" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H112" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F113" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
+        <v>FA1003</v>
       </c>
       <c r="G113" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="H113" s="2">
-        <v>0</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>123</v>
+        <v>22</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>295</v>
-      </c>
-      <c r="B114" t="s">
-        <v>298</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114"/>
-      <c r="E114" t="s">
-        <v>447</v>
-      </c>
-      <c r="F114" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
-      </c>
-      <c r="G114" t="s">
-        <v>443</v>
-      </c>
-      <c r="H114" s="2">
-        <v>0</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>295</v>
-      </c>
-      <c r="B115" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115"/>
-      <c r="E115" t="s">
-        <v>447</v>
-      </c>
-      <c r="F115" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5425</v>
-      </c>
-      <c r="G115" t="s">
-        <v>443</v>
-      </c>
-      <c r="H115" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F114" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1014</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H114" s="8">
+        <v>28</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C115" s="7">
+        <v>2</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F115" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1001</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H115" s="8">
+        <v>40</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>242</v>
-      </c>
-      <c r="B116" t="s">
-        <v>243</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116"/>
-      <c r="E116" t="s">
-        <v>447</v>
-      </c>
-      <c r="F116" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5427F</v>
-      </c>
-      <c r="G116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116" s="7">
+        <v>2</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F116" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1004</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H116" s="8">
+        <v>29</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F117" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1005</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H117" s="8">
+        <v>19</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F118" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1006</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H118" s="8">
+        <v>19</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H119" s="8">
+        <v>37</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1</v>
+      </c>
+      <c r="F120" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H120" s="8">
+        <v>37</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="F121" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H121" s="8">
+        <v>28</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C122" s="7">
+        <v>1</v>
+      </c>
+      <c r="F122" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H122" s="8">
+        <v>28</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="H116" s="2">
-        <v>0</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>361</v>
-      </c>
-      <c r="B117" t="s">
-        <v>362</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117"/>
-      <c r="E117" t="s">
-        <v>446</v>
-      </c>
-      <c r="F117" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G117" t="s">
-        <v>442</v>
-      </c>
-      <c r="H117" s="2">
-        <v>0</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>361</v>
-      </c>
-      <c r="B118" t="s">
-        <v>363</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118"/>
-      <c r="E118" t="s">
-        <v>446</v>
-      </c>
-      <c r="F118" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G118" t="s">
-        <v>442</v>
-      </c>
-      <c r="H118" s="2">
-        <v>0</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>361</v>
-      </c>
-      <c r="B119" t="s">
-        <v>364</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119"/>
-      <c r="E119" t="s">
-        <v>446</v>
-      </c>
-      <c r="F119" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G119" t="s">
-        <v>442</v>
-      </c>
-      <c r="H119" s="2">
-        <v>0</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>361</v>
-      </c>
-      <c r="B120" t="s">
-        <v>365</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120"/>
-      <c r="E120" t="s">
-        <v>446</v>
-      </c>
-      <c r="F120" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5428</v>
-      </c>
-      <c r="G120" t="s">
-        <v>442</v>
-      </c>
-      <c r="H120" s="2">
-        <v>0</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>284</v>
-      </c>
-      <c r="B121" t="s">
-        <v>285</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121"/>
-      <c r="E121" t="s">
-        <v>447</v>
-      </c>
-      <c r="F121" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5436P</v>
-      </c>
-      <c r="G121" t="s">
-        <v>453</v>
-      </c>
-      <c r="H121" s="2">
-        <v>46</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>354</v>
-      </c>
-      <c r="B122" t="s">
-        <v>355</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122"/>
-      <c r="E122" t="s">
-        <v>446</v>
-      </c>
-      <c r="F122" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
-      </c>
-      <c r="G122" t="s">
-        <v>443</v>
-      </c>
-      <c r="H122" s="2">
-        <v>0</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>354</v>
-      </c>
-      <c r="B123" t="s">
-        <v>356</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123"/>
-      <c r="E123" t="s">
-        <v>446</v>
-      </c>
-      <c r="F123" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5437</v>
-      </c>
-      <c r="G123" t="s">
-        <v>443</v>
-      </c>
-      <c r="H123" s="2">
-        <v>0</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>278</v>
-      </c>
-      <c r="B124" t="s">
-        <v>279</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124"/>
-      <c r="E124" t="s">
-        <v>447</v>
-      </c>
-      <c r="F124" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438B</v>
-      </c>
-      <c r="G124" t="s">
-        <v>439</v>
-      </c>
-      <c r="H124" s="2">
-        <v>46</v>
+      <c r="H123" s="8">
+        <v>37</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" s="7">
+        <v>1</v>
+      </c>
+      <c r="F124" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5412B</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H124" s="8">
+        <v>28</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>139</v>
       </c>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>280</v>
-      </c>
-      <c r="B125" t="s">
-        <v>281</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125"/>
-      <c r="E125" t="s">
-        <v>447</v>
-      </c>
-      <c r="F125" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5438P</v>
-      </c>
-      <c r="G125" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6009</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H125" s="8">
+        <v>19</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C126" s="7">
+        <v>2</v>
+      </c>
+      <c r="F126" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6010</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H126" s="8">
+        <v>50</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C127" s="7">
+        <v>10</v>
+      </c>
+      <c r="F127" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H125" s="2">
-        <v>46</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>323</v>
-      </c>
-      <c r="B126" t="s">
-        <v>324</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126"/>
-      <c r="E126" t="s">
-        <v>451</v>
-      </c>
-      <c r="F126" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5440</v>
-      </c>
-      <c r="G126" t="s">
-        <v>456</v>
-      </c>
-      <c r="H126" s="2">
-        <v>28</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>311</v>
-      </c>
-      <c r="B127" t="s">
-        <v>312</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127"/>
-      <c r="E127" t="s">
-        <v>451</v>
-      </c>
-      <c r="F127" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5442</v>
-      </c>
-      <c r="G127" t="s">
-        <v>443</v>
-      </c>
-      <c r="H127" s="2">
-        <v>46</v>
+      <c r="H127" s="8">
+        <v>15</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>282</v>
-      </c>
-      <c r="B128" t="s">
-        <v>283</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128"/>
-      <c r="E128" t="s">
-        <v>447</v>
-      </c>
-      <c r="F128" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5445B</v>
-      </c>
-      <c r="G128" t="s">
+        <v>485</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="7">
+        <v>10</v>
+      </c>
+      <c r="F128" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H128" s="2">
-        <v>0</v>
+      <c r="H128" s="8">
+        <v>15</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>286</v>
-      </c>
-      <c r="B129" t="s">
-        <v>287</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129"/>
-      <c r="E129" t="s">
-        <v>447</v>
-      </c>
-      <c r="F129" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5455F</v>
-      </c>
-      <c r="G129" t="s">
-        <v>443</v>
-      </c>
-      <c r="H129" s="2">
-        <v>0</v>
+        <v>484</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C129" s="7">
+        <v>10</v>
+      </c>
+      <c r="F129" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H129" s="8">
+        <v>15</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>307</v>
-      </c>
-      <c r="B130" t="s">
-        <v>308</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130" t="s">
-        <v>447</v>
-      </c>
-      <c r="F130" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6004</v>
-      </c>
-      <c r="G130"/>
-      <c r="H130" s="2">
-        <v>40</v>
+        <v>486</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C130" s="7">
+        <v>10</v>
+      </c>
+      <c r="F130" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H130" s="8">
+        <v>15</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>366</v>
-      </c>
-      <c r="B131" t="s">
-        <v>367</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131"/>
-      <c r="E131" t="s">
+        <v>490</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C131" s="7">
+        <v>10</v>
+      </c>
+      <c r="F131" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H131" s="8">
+        <v>15</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C132" s="7">
+        <v>10</v>
+      </c>
+      <c r="F132" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H132" s="8">
+        <v>15</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="E133" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F131" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6005</v>
-      </c>
-      <c r="G131"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>413</v>
-      </c>
-      <c r="B132" t="s">
-        <v>414</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132"/>
-      <c r="E132" t="s">
+      <c r="F133" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA001</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H133" s="8">
+        <v>78</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F132" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G132"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>413</v>
-      </c>
-      <c r="B133" t="s">
-        <v>415</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133"/>
-      <c r="E133" t="s">
-        <v>448</v>
-      </c>
-      <c r="F133" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G133"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J133" s="3"/>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>413</v>
-      </c>
-      <c r="B134" t="s">
-        <v>416</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134"/>
-      <c r="E134" t="s">
-        <v>448</v>
-      </c>
-      <c r="F134" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G134"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="5" t="s">
-        <v>22</v>
+      <c r="F134" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA002</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H134" s="8">
+        <v>89</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>413</v>
-      </c>
-      <c r="B135" t="s">
-        <v>417</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135"/>
-      <c r="E135" t="s">
-        <v>448</v>
-      </c>
-      <c r="F135" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G135"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J135" s="3"/>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>413</v>
-      </c>
-      <c r="B136" t="s">
-        <v>418</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136"/>
-      <c r="E136" t="s">
-        <v>448</v>
-      </c>
-      <c r="F136" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6006</v>
-      </c>
-      <c r="G136"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="3" t="s">
-        <v>20</v>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F135" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA003</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H135" s="8">
+        <v>89</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C136" s="7">
+        <v>1</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F136" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA004</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H136" s="8">
+        <v>168</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>411</v>
-      </c>
-      <c r="B137" t="s">
-        <v>412</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137"/>
-      <c r="E137" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="E137" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F137" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6007</v>
-      </c>
-      <c r="G137"/>
-      <c r="H137" s="2">
-        <v>39</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>321</v>
-      </c>
-      <c r="B138" t="s">
-        <v>322</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138"/>
-      <c r="E138" t="s">
-        <v>451</v>
-      </c>
-      <c r="F138" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6008</v>
-      </c>
-      <c r="G138"/>
-      <c r="H138" s="2">
-        <v>59</v>
+      <c r="F137" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA005</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H137" s="8">
+        <v>145</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C138" s="7">
+        <v>1</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F138" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA006</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H138" s="8">
+        <v>123</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="C139" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F139" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6010</v>
+        <v>XIA007</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H139" s="8">
-        <v>50</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C140" s="7">
         <v>1</v>
@@ -6168,27 +6216,25 @@
       </c>
       <c r="F140" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>XIA008</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="H140" s="8">
-        <v>28</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
@@ -6198,27 +6244,25 @@
       </c>
       <c r="F141" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
+        <v>XIA009</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="H141" s="8">
-        <v>28</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
@@ -6228,373 +6272,488 @@
       </c>
       <c r="F142" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6009</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>469</v>
+        <v>XIA010</v>
       </c>
       <c r="H142" s="8">
-        <v>19</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C143" s="7">
-        <v>1</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F143" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA002</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="H143" s="8">
-        <v>89</v>
-      </c>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" t="s">
+        <v>445</v>
+      </c>
+      <c r="F143" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0101</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143" s="2"/>
       <c r="I143" s="6" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C144" s="7">
-        <v>1</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F144" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA003</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H144" s="8">
-        <v>89</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J144" s="3"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C145" s="7">
-        <v>1</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F145" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA004</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H145" s="8">
-        <v>168</v>
-      </c>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>315</v>
+      </c>
+      <c r="B144" t="s">
+        <v>316</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" t="s">
+        <v>449</v>
+      </c>
+      <c r="F144" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1009</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" t="s">
+        <v>445</v>
+      </c>
+      <c r="F145" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1010</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145" s="2"/>
       <c r="I145" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J145" s="3"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C146" s="7">
-        <v>1</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F146" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA001</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H146" s="8">
+        <v>129</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>333</v>
+      </c>
+      <c r="B146" t="s">
+        <v>349</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" t="s">
+        <v>450</v>
+      </c>
+      <c r="F146" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1011</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146" s="2">
+        <v>28</v>
+      </c>
+      <c r="I146" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J146" s="4"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F147" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA005</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>473</v>
+        <v>XIA011</v>
       </c>
       <c r="H147" s="8">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C148" s="7">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s">
+        <v>304</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" t="s">
+        <v>445</v>
+      </c>
+      <c r="F148" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1002</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" t="s">
+        <v>445</v>
+      </c>
+      <c r="F149" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6004</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149" s="2">
+        <v>40</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>364</v>
+      </c>
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" t="s">
+        <v>444</v>
+      </c>
+      <c r="F150" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6005</v>
+      </c>
+      <c r="G150"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>411</v>
+      </c>
+      <c r="B151" t="s">
+        <v>412</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" t="s">
+        <v>444</v>
+      </c>
+      <c r="F151" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>411</v>
+      </c>
+      <c r="B152" t="s">
+        <v>413</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" t="s">
+        <v>446</v>
+      </c>
+      <c r="F152" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G152"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>411</v>
+      </c>
+      <c r="B153" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="s">
+        <v>446</v>
+      </c>
+      <c r="F153" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G153"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>411</v>
+      </c>
+      <c r="B154" t="s">
+        <v>415</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154" t="s">
+        <v>446</v>
+      </c>
+      <c r="F154" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G154"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>411</v>
+      </c>
+      <c r="B155" t="s">
+        <v>416</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" t="s">
+        <v>446</v>
+      </c>
+      <c r="F155" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6006</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" t="s">
+        <v>410</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" t="s">
+        <v>444</v>
+      </c>
+      <c r="F156" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6007</v>
+      </c>
+      <c r="G156"/>
+      <c r="H156" s="2">
+        <v>39</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157" t="s">
+        <v>449</v>
+      </c>
+      <c r="F157" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6008</v>
+      </c>
+      <c r="G157"/>
+      <c r="H157" s="2">
+        <v>59</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C158" s="7">
+        <v>2</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F158" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA012</v>
+      </c>
+      <c r="H158" s="8">
+        <v>78</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C159" s="7">
         <v>1</v>
       </c>
-      <c r="E148" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F148" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA006</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H148" s="8">
-        <v>123</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J148" s="3"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C149" s="7">
+      <c r="E159" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F159" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA013</v>
+      </c>
+      <c r="H159" s="8">
+        <v>78</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C160" s="7">
         <v>1</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F149" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA007</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H149" s="8">
-        <v>179</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J149" s="3"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C150" s="7">
-        <v>1</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F150" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA008</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H150" s="8">
-        <v>145</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J150" s="3"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C151" s="7">
-        <v>1</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F151" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA009</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H151" s="8">
-        <v>111</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" s="3"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C152" s="7">
-        <v>1</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F152" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA010</v>
-      </c>
-      <c r="H152" s="8">
-        <v>100</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J152" s="3"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C153" s="7">
-        <v>1</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F153" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA011</v>
-      </c>
-      <c r="H153" s="8">
-        <v>100</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J153" s="3"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C154" s="7">
-        <v>1</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F154" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA013</v>
-      </c>
-      <c r="H154" s="8">
-        <v>78</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J154" s="3"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C155" s="7">
-        <v>1</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F155" s="7" t="str">
+      <c r="E160" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F160" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA014</v>
       </c>
-      <c r="G155" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H155" s="8">
+      <c r="G160" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H160" s="8">
         <v>55</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="I160" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J155" s="3"/>
+      <c r="J160" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4AA42-2470-4836-9C0E-B62251066952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6543399E-B283-45EE-9709-C9EA4DC033B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="490">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1487,31 +1487,22 @@
     <t>Beetle Classic Rosado</t>
   </si>
   <si>
-    <t>https://sc04.alicdn.com/kf/Ha08ceb73583943a098141dae3f4c407dl/267859666/Ha08ceb73583943a098141dae3f4c407dl.jpg</t>
-  </si>
-  <si>
-    <t>https://sc04.alicdn.com/kf/H5b024907bf234af781e606262d312225D/267859666/H5b024907bf234af781e606262d312225D.jpg</t>
-  </si>
-  <si>
-    <t>https://sc04.alicdn.com/kf/H10af45fe93a948e3a00626aeb5e8714cG/267859666/H10af45fe93a948e3a00626aeb5e8714cG.jpg</t>
-  </si>
-  <si>
-    <t>https://sc04.alicdn.com/kf/H1fac81f7fab34c1185cc07612d4d46f47/267859666/H1fac81f7fab34c1185cc07612d4d46f47.jpg</t>
-  </si>
-  <si>
     <t>Beetle Classic Blanco</t>
   </si>
   <si>
-    <t>https://s.alicdn.com/@sc04/kf/Hbaf18917990a4f72b3df35b06e621c86z.jpg?avif=close&amp;webp=close</t>
-  </si>
-  <si>
-    <t>https://s.alicdn.com/@sc04/kf/Hb562e8caece54810a61a606d3c45a988g.jpg?avif=close&amp;webp=close</t>
-  </si>
-  <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000909360447/p/1/e/6/t/10301/5000141454647.mp4?from=chrome</t>
   </si>
   <si>
     <t>Columna1</t>
+  </si>
+  <si>
+    <t>https://gv-vod-cdn.aliexpress-media.com/ae_sg_gmc/video_target/gv91-e58538ad-a181c998-91b5d26a-52de/trans/f5d381cf-ddaf-44fd-a0ab-06d928bfeb01-h264-hd.mp4</t>
+  </si>
+  <si>
+    <t>Auto de Colección</t>
+  </si>
+  <si>
+    <t>Coleccionable</t>
   </si>
 </sst>
 </file>
@@ -2011,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5643,6 +5634,9 @@
       <c r="C119" s="7">
         <v>1</v>
       </c>
+      <c r="E119" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="F119" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5332</v>
@@ -5670,6 +5664,9 @@
       <c r="C120" s="7">
         <v>1</v>
       </c>
+      <c r="E120" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="F120" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5332</v>
@@ -5695,6 +5692,9 @@
       <c r="C121" s="7">
         <v>1</v>
       </c>
+      <c r="E121" s="7" t="s">
+        <v>488</v>
+      </c>
       <c r="F121" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
@@ -5722,6 +5722,9 @@
       <c r="C122" s="7">
         <v>1</v>
       </c>
+      <c r="E122" s="7" t="s">
+        <v>488</v>
+      </c>
       <c r="F122" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
@@ -5749,6 +5752,9 @@
       <c r="C123" s="7">
         <v>1</v>
       </c>
+      <c r="E123" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="F123" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
@@ -5776,6 +5782,9 @@
       <c r="C124" s="7">
         <v>1</v>
       </c>
+      <c r="E124" s="7" t="s">
+        <v>488</v>
+      </c>
       <c r="F124" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5412B</v>
@@ -5801,6 +5810,9 @@
       <c r="C125" s="7">
         <v>1</v>
       </c>
+      <c r="E125" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F125" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6009</v>
@@ -5826,6 +5838,9 @@
       <c r="C126" s="7">
         <v>2</v>
       </c>
+      <c r="E126" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F126" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6010</v>
@@ -5853,6 +5868,9 @@
       <c r="C127" s="7">
         <v>10</v>
       </c>
+      <c r="E127" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F127" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
@@ -5864,10 +5882,10 @@
         <v>15</v>
       </c>
       <c r="I127" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5880,6 +5898,9 @@
       <c r="C128" s="7">
         <v>10</v>
       </c>
+      <c r="E128" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F128" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
@@ -5891,10 +5912,10 @@
         <v>15</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5907,6 +5928,9 @@
       <c r="C129" s="7">
         <v>10</v>
       </c>
+      <c r="E129" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F129" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
@@ -5918,10 +5942,10 @@
         <v>15</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5934,6 +5958,9 @@
       <c r="C130" s="7">
         <v>10</v>
       </c>
+      <c r="E130" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F130" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
@@ -5945,10 +5972,10 @@
         <v>15</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5956,11 +5983,14 @@
         <v>292</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C131" s="7">
         <v>10</v>
       </c>
+      <c r="E131" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F131" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
@@ -5975,7 +6005,7 @@
         <v>487</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5988,6 +6018,9 @@
       <c r="C132" s="7">
         <v>10</v>
       </c>
+      <c r="E132" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F132" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
@@ -5999,10 +6032,10 @@
         <v>15</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6543399E-B283-45EE-9709-C9EA4DC033B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130FBBF-F740-4430-B163-45B25153A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="495">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1487,22 +1487,37 @@
     <t>Beetle Classic Rosado</t>
   </si>
   <si>
+    <t>https://sc04.alicdn.com/kf/Ha08ceb73583943a098141dae3f4c407dl/267859666/Ha08ceb73583943a098141dae3f4c407dl.jpg</t>
+  </si>
+  <si>
+    <t>https://sc04.alicdn.com/kf/H5b024907bf234af781e606262d312225D/267859666/H5b024907bf234af781e606262d312225D.jpg</t>
+  </si>
+  <si>
+    <t>https://sc04.alicdn.com/kf/H10af45fe93a948e3a00626aeb5e8714cG/267859666/H10af45fe93a948e3a00626aeb5e8714cG.jpg</t>
+  </si>
+  <si>
+    <t>https://sc04.alicdn.com/kf/H1fac81f7fab34c1185cc07612d4d46f47/267859666/H1fac81f7fab34c1185cc07612d4d46f47.jpg</t>
+  </si>
+  <si>
     <t>Beetle Classic Blanco</t>
   </si>
   <si>
-    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000909360447/p/1/e/6/t/10301/5000141454647.mp4?from=chrome</t>
+    <t>https://s.alicdn.com/@sc04/kf/Hbaf18917990a4f72b3df35b06e621c86z.jpg?avif=close&amp;webp=close</t>
+  </si>
+  <si>
+    <t>https://s.alicdn.com/@sc04/kf/Hb562e8caece54810a61a606d3c45a988g.jpg?avif=close&amp;webp=close</t>
   </si>
   <si>
     <t>Columna1</t>
   </si>
   <si>
-    <t>https://gv-vod-cdn.aliexpress-media.com/ae_sg_gmc/video_target/gv91-e58538ad-a181c998-91b5d26a-52de/trans/f5d381cf-ddaf-44fd-a0ab-06d928bfeb01-h264-hd.mp4</t>
-  </si>
-  <si>
-    <t>Auto de Colección</t>
-  </si>
-  <si>
     <t>Coleccionable</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000909360447/p/1/e/6/t/10301/5000141454647.mp4</t>
+  </si>
+  <si>
+    <t>Auto de Coleccion</t>
   </si>
 </sst>
 </file>
@@ -2002,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125:E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5693,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F121" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5723,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F122" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5753,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="F123" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5783,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F124" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5811,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F125" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5839,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F126" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5869,7 +5884,7 @@
         <v>10</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F127" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5882,10 +5897,10 @@
         <v>15</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5899,7 +5914,7 @@
         <v>10</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F128" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5912,10 +5927,10 @@
         <v>15</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5929,7 +5944,7 @@
         <v>10</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F129" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5942,10 +5957,10 @@
         <v>15</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5959,7 +5974,7 @@
         <v>10</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F130" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5972,10 +5987,10 @@
         <v>15</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5983,13 +5998,13 @@
         <v>292</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C131" s="7">
         <v>10</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F131" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6005,7 +6020,7 @@
         <v>487</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -6019,7 +6034,7 @@
         <v>10</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F132" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6032,10 +6047,10 @@
         <v>15</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130FBBF-F740-4430-B163-45B25153A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC1E16-B5EB-4AD3-8030-87964CE2611E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="555">
   <si>
     <t>CODIGO</t>
   </si>
@@ -272,9 +272,6 @@
     <t>https://ae01.alicdn.com/kf/S49bf2b0d5d4642e3813085c229f0fa65M.jpg</t>
   </si>
   <si>
-    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215483985827/p/1/e/6/t/10301/1100196404795.mp4?from=chrome</t>
-  </si>
-  <si>
     <t>https://img.joomcdn.net/374db6a4f9fe77f89e083dc6d0df48949c023e6e_original.jpeg</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>https://www.c-enter.com.mx/tienda/wp-content/uploads/2023/11/play.png</t>
   </si>
   <si>
-    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215259469909/p/1/e/6/t/10301/4000150994856.mp4?from=chrome</t>
-  </si>
-  <si>
     <t>https://ae01.alicdn.com/kf/Sb4b671bb7db642ea9ee5dc2eac407b25J.jpg</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>https://ae01.alicdn.com/kf/S394a6bdde41243d1becd1f214cd4a750o.jpg</t>
   </si>
   <si>
-    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2213983474161/p/1/e/6/t/10301/1100083146459.mp4?from=chrome</t>
-  </si>
-  <si>
     <t>https://fuegoverde.com.co/wp-content/uploads/2020/07/FIGURA-DE-RIUK-DEATH-NOTE.jpg</t>
   </si>
   <si>
@@ -1518,6 +1509,195 @@
   </si>
   <si>
     <t>Auto de Coleccion</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/l1s5dtUPBuA?si=RwDrSK-f9pcwwhZU</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2213983474161/p/1/e/6/t/10301/1100083146459.mp4</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215259469909/p/1/e/6/t/10301/4000150994856.mp4</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215483985827/p/1/e/6/t/10301/1100196404795.mp4</t>
+  </si>
+  <si>
+    <t>Llavero Giratorio Escudo del Capitan America</t>
+  </si>
+  <si>
+    <t>Adaptador Cable OTG micro B</t>
+  </si>
+  <si>
+    <t>Auto de metal  Francesco Bernoull 6cm</t>
+  </si>
+  <si>
+    <t>Auto de metal Rayo McQueen 6cm</t>
+  </si>
+  <si>
+    <t>Biker casco de metal articulable 12cm Azul y Rojo</t>
+  </si>
+  <si>
+    <t>Cable Adaptador HDMI a VGA</t>
+  </si>
+  <si>
+    <t>CardPad con marca  Hyundai x5</t>
+  </si>
+  <si>
+    <t>CardPad con marca  Nissan x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collar Titanic </t>
+  </si>
+  <si>
+    <t>Dedales Gamer x4</t>
+  </si>
+  <si>
+    <t>Embudo de Silicona Plegable 7x7cm</t>
+  </si>
+  <si>
+    <t>Figura de acción Broly 20CM</t>
+  </si>
+  <si>
+    <t>Figura de accion Groot</t>
+  </si>
+  <si>
+    <t>Figura de accion Shenglong</t>
+  </si>
+  <si>
+    <t>Figura Love Pareja - KISS ME</t>
+  </si>
+  <si>
+    <t>Llavero Metal Huesito Dota2</t>
+  </si>
+  <si>
+    <t>Llavero Principito</t>
+  </si>
+  <si>
+    <t>Llavero Strombreaker</t>
+  </si>
+  <si>
+    <t>Sticker Metal 3D TURBO 12x1.4cm Rojo, Negro y Blanco GRANDE</t>
+  </si>
+  <si>
+    <t>Sticker Metal 3D TURBO 9.7x1.1cm Rojo, Negro y Blanco</t>
+  </si>
+  <si>
+    <t>Sticker para Libros x500</t>
+  </si>
+  <si>
+    <t>Sticker PET Pelota Beisbol</t>
+  </si>
+  <si>
+    <t>Sticker PET Respect for Bikers</t>
+  </si>
+  <si>
+    <t>TRACTOR / EXCABADORA 32CM</t>
+  </si>
+  <si>
+    <t>Lector de Memorias Externo 15 en 1 x2</t>
+  </si>
+  <si>
+    <t>Sticker Metal 3D LTZ</t>
+  </si>
+  <si>
+    <t>Figura de acción Animalitos ceramica x6</t>
+  </si>
+  <si>
+    <t>Figura de acción Panditas Fluorescente Iluminados x5</t>
+  </si>
+  <si>
+    <t>ProBador de Voltaje 12V Truper</t>
+  </si>
+  <si>
+    <t>Sticker Epoxi PERU x4</t>
+  </si>
+  <si>
+    <t>Sticker huellitas x2</t>
+  </si>
+  <si>
+    <t>Sticker Metal 3D GECKO Rojo, Negro, Amarillo y Blanco</t>
+  </si>
+  <si>
+    <t>Sticker Ojitos Molestos</t>
+  </si>
+  <si>
+    <t>Sticker PET Flechas Moto</t>
+  </si>
+  <si>
+    <t>Sticker PET La Vita e Bella</t>
+  </si>
+  <si>
+    <t>Sujetador de gafas de Sol</t>
+  </si>
+  <si>
+    <t>Tapitas Fluorescente Iluminadas x4 Rosa</t>
+  </si>
+  <si>
+    <t>Sticker Cinta de arox20</t>
+  </si>
+  <si>
+    <t>Sticker Tanque de Gasolina</t>
+  </si>
+  <si>
+    <t>Manito organizador adhesivo x2</t>
+  </si>
+  <si>
+    <t>Sticker Gatito Fluorescente Luminoso</t>
+  </si>
+  <si>
+    <t>Sticker NO FUMAR</t>
+  </si>
+  <si>
+    <t>Sticker PET Rana Verde</t>
+  </si>
+  <si>
+    <t>Sticker Cromado Gecko</t>
+  </si>
+  <si>
+    <t>Sticker Reflectivo Retrovisor x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Espejo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sticker PET Panal de Abeja 15x12cm </t>
+  </si>
+  <si>
+    <t>Trencitos ABS Rojo, Rosa, verde y Blanco</t>
+  </si>
+  <si>
+    <t>Sticker PET WiFi</t>
+  </si>
+  <si>
+    <t>Tapitas de Neumaticos Calavera ABS y Cobre</t>
+  </si>
+  <si>
+    <t>CardPad con marca  Toyota x4</t>
+  </si>
+  <si>
+    <t>Sticker Reflectivo emoticones x10</t>
+  </si>
+  <si>
+    <t>Sticker Protector Esquinas x2</t>
+  </si>
+  <si>
+    <t>Sticker Epoxi Autobot x4</t>
+  </si>
+  <si>
+    <t>Sticker para manijas x4 colores</t>
+  </si>
+  <si>
+    <t>Sticker Gecko Relectivo 10x5cm</t>
+  </si>
+  <si>
+    <t>Sticker PET de 3-8cm Varios</t>
+  </si>
+  <si>
+    <t>Llaveros</t>
+  </si>
+  <si>
+    <t>varios</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1626,6 +1806,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1694,8 +1875,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K160" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:K160" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K219" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:K219" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -2015,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125:E132"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,57 +2247,57 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F2" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0100</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H2" s="8">
         <v>19</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F3" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H3" s="2">
         <v>46</v>
@@ -2130,24 +2311,24 @@
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H4" s="2">
         <v>46</v>
@@ -2161,24 +2342,24 @@
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" t="s">
         <v>386</v>
-      </c>
-      <c r="B5" t="s">
-        <v>389</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F5" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H5" s="2">
         <v>46</v>
@@ -2192,24 +2373,24 @@
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H6" s="2">
         <v>46</v>
@@ -2223,24 +2404,24 @@
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059FB</v>
       </c>
       <c r="G7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2252,566 +2433,566 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5440</v>
       </c>
       <c r="G8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H8" s="2">
         <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0100</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H9" s="8">
         <v>19</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F10" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5057</v>
       </c>
       <c r="G10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H10" s="2">
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F11" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H11" s="2">
         <v>37</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F12" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H12" s="2">
         <v>37</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
         <v>231</v>
-      </c>
-      <c r="B13" t="s">
-        <v>234</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F13" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H13" s="2">
         <v>37</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F14" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H14" s="2">
         <v>37</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15"/>
       <c r="E15" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F15" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5330F</v>
       </c>
       <c r="G15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H15" s="2">
         <v>28</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F16" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5361F</v>
       </c>
       <c r="G16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F17" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5366</v>
       </c>
       <c r="G17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H17" s="2">
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F18" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5427F</v>
       </c>
       <c r="G18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H19" s="8">
         <v>19</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H20" s="8">
         <v>12</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1011</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F22" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F23" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G23" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
         <v>226</v>
-      </c>
-      <c r="B24" t="s">
-        <v>229</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F24" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G24" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F25" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F26" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5390</v>
       </c>
       <c r="G26" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -2825,357 +3006,357 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F27" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5411</v>
       </c>
       <c r="G27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F28" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5412B</v>
       </c>
       <c r="G28" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H28" s="2">
         <v>37</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F29" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G29" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F30" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G30" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F31" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" t="s">
         <v>298</v>
-      </c>
-      <c r="B32" t="s">
-        <v>301</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F32" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G32" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F33" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G33" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F34" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5438B</v>
       </c>
       <c r="G34" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H34" s="2">
         <v>46</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F35" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5438P</v>
       </c>
       <c r="G35" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H35" s="2">
         <v>46</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F36" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5445B</v>
       </c>
       <c r="G36" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F37" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5039</v>
       </c>
       <c r="G37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F38" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5081</v>
       </c>
       <c r="G38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -3189,24 +3370,24 @@
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F39" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5081</v>
       </c>
       <c r="G39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -3220,24 +3401,24 @@
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F40" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5317</v>
       </c>
       <c r="G40" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H40" s="2">
         <v>46</v>
@@ -3249,148 +3430,148 @@
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F41" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F42" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G42" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
         <v>214</v>
-      </c>
-      <c r="B43" t="s">
-        <v>217</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F43" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F44" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G44" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F45" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5328</v>
       </c>
       <c r="G45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H45" s="2">
         <v>37</v>
@@ -3404,24 +3585,24 @@
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>402</v>
+      </c>
+      <c r="B46" t="s">
         <v>405</v>
-      </c>
-      <c r="B46" t="s">
-        <v>408</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F46" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
       </c>
       <c r="G46" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H46" s="2">
         <v>37</v>
@@ -3435,24 +3616,24 @@
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F47" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G47" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -3466,24 +3647,24 @@
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F48" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G48" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -3497,24 +3678,24 @@
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>372</v>
+      </c>
+      <c r="B49" t="s">
         <v>375</v>
-      </c>
-      <c r="B49" t="s">
-        <v>378</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F49" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G49" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -3528,24 +3709,24 @@
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F50" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G50" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -3559,241 +3740,241 @@
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F51" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G51" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H51" s="2">
         <v>46</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F52" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G52" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H52" s="2">
         <v>46</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
         <v>264</v>
-      </c>
-      <c r="B53" t="s">
-        <v>267</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F53" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G53" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H53" s="2">
         <v>46</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F54" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G54" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H54" s="2">
         <v>37</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F55" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s">
         <v>236</v>
-      </c>
-      <c r="B56" t="s">
-        <v>239</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F56" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G56" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F57" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G57" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F58" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G58" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H58" s="2">
         <v>46</v>
@@ -3807,24 +3988,24 @@
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F59" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G59" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H59" s="2">
         <v>46</v>
@@ -3838,24 +4019,24 @@
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" t="s">
         <v>366</v>
-      </c>
-      <c r="B60" t="s">
-        <v>369</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F60" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G60" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H60" s="2">
         <v>46</v>
@@ -3869,24 +4050,24 @@
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B61" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F61" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G61" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H61" s="2">
         <v>46</v>
@@ -3900,24 +4081,24 @@
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F62" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5393</v>
       </c>
       <c r="G62" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3929,24 +4110,24 @@
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F63" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5403</v>
       </c>
       <c r="G63" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H63" s="2">
         <v>46</v>
@@ -3958,24 +4139,24 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F64" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G64" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3989,24 +4170,24 @@
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F65" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G65" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -4020,24 +4201,24 @@
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B66" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F66" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G66" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -4051,24 +4232,24 @@
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>392</v>
+      </c>
+      <c r="B67" t="s">
         <v>395</v>
-      </c>
-      <c r="B67" t="s">
-        <v>398</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F67" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G67" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -4082,24 +4263,24 @@
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F68" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G68" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -4113,24 +4294,24 @@
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B69" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F69" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G69" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -4144,24 +4325,24 @@
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B70" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F70" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G70" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -4175,24 +4356,24 @@
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F71" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G71" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -4206,24 +4387,24 @@
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" t="s">
         <v>359</v>
-      </c>
-      <c r="B72" t="s">
-        <v>362</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F72" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G72" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -4237,24 +4418,24 @@
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F73" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G73" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -4268,232 +4449,232 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F74" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1012</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H74" s="8">
         <v>19</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F75" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1013</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H75" s="8">
         <v>28</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F76" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G76" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H76" s="2">
         <v>28</v>
       </c>
       <c r="I76" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F77" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G77" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
         <v>243</v>
-      </c>
-      <c r="B78" t="s">
-        <v>246</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F78" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G78" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F79" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G79" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F80" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1014</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H80" s="8">
         <v>28</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F81" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5355</v>
       </c>
       <c r="G81" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H81" s="2">
         <v>46</v>
@@ -4507,425 +4688,425 @@
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F82" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G82" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H82" s="2">
         <v>46</v>
       </c>
       <c r="I82" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83"/>
       <c r="E83" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F83" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G83" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H83" s="2">
         <v>46</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" t="s">
         <v>219</v>
-      </c>
-      <c r="B84" t="s">
-        <v>222</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84"/>
       <c r="E84" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F84" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G84" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H84" s="2">
         <v>46</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F85" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5391F</v>
       </c>
       <c r="G85" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H85" s="2">
         <v>46</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B86" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86"/>
       <c r="E86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F86" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G86" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H86" s="2">
         <v>46</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B87" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87"/>
       <c r="E87" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F87" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G87" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H87" s="2">
         <v>46</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>339</v>
+      </c>
+      <c r="B88" t="s">
         <v>342</v>
-      </c>
-      <c r="B88" t="s">
-        <v>345</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88"/>
       <c r="E88" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F88" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G88" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H88" s="2">
         <v>46</v>
       </c>
       <c r="I88" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B89" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89"/>
       <c r="E89" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F89" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G89" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H89" s="2">
         <v>46</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90"/>
       <c r="E90" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F90" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5423</v>
       </c>
       <c r="G90" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H90" s="2">
         <v>46</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91"/>
       <c r="E91" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F91" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G91" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
       </c>
       <c r="I91" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92"/>
       <c r="E92" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F92" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G92" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" t="s">
         <v>293</v>
-      </c>
-      <c r="B93" t="s">
-        <v>296</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F93" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F94" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G94" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95"/>
       <c r="E95" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F95" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5437</v>
       </c>
       <c r="G95" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -4939,24 +5120,24 @@
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B96" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F96" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5437</v>
       </c>
       <c r="G96" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -4970,758 +5151,758 @@
     </row>
     <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97"/>
       <c r="E97" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F97" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5442</v>
       </c>
       <c r="G97" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H97" s="2">
         <v>46</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98"/>
       <c r="E98" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F98" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5455F</v>
       </c>
       <c r="G98" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F99" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5313</v>
       </c>
       <c r="G99" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F100" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G100" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
       </c>
       <c r="I100" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J100" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B101" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101"/>
       <c r="E101" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F101" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G101" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" t="s">
         <v>259</v>
-      </c>
-      <c r="B102" t="s">
-        <v>262</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102"/>
       <c r="E102" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F102" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G102" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103"/>
       <c r="E103" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F103" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G103" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H103" s="2">
         <v>28</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104"/>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F104" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G104" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H104" s="2">
         <v>46</v>
       </c>
       <c r="I104" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F105" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G105" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H105" s="2">
         <v>37</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" t="s">
         <v>207</v>
-      </c>
-      <c r="B106" t="s">
-        <v>210</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106"/>
       <c r="E106" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F106" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G106" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H106" s="2">
         <v>46</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107"/>
       <c r="E107" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F107" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G107" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H107" s="2">
         <v>46</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108"/>
       <c r="E108" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F108" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G108" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
       </c>
       <c r="I108" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109"/>
       <c r="E109" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F109" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G109" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" t="s">
         <v>248</v>
-      </c>
-      <c r="B110" t="s">
-        <v>251</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F110" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G110" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F111" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G111" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B112" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F112" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5436P</v>
       </c>
       <c r="G112" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H112" s="2">
         <v>46</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B113" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F113" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1003</v>
       </c>
       <c r="G113" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H113" s="2">
         <v>22</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C114" s="7">
         <v>1</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F114" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1014</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H114" s="8">
         <v>28</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C115" s="7">
         <v>2</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F115" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1001</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H115" s="8">
         <v>40</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>91</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C116" s="7">
         <v>2</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F116" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1004</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H116" s="8">
         <v>29</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>95</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F117" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1005</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H117" s="8">
         <v>19</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C118" s="7">
         <v>1</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F118" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1006</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H118" s="8">
         <v>19</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F119" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5332</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H119" s="8">
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C120" s="7">
         <v>1</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F120" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5332</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H120" s="8">
         <v>37</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F121" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H121" s="8">
         <v>28</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>30</v>
@@ -5729,23 +5910,23 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C122" s="7">
         <v>1</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F122" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H122" s="8">
         <v>28</v>
@@ -5759,81 +5940,83 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C123" s="7">
         <v>1</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F123" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H123" s="8">
         <v>37</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C124" s="7">
         <v>1</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F124" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5412B</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H124" s="8">
         <v>28</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J124" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F125" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6009</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H125" s="8">
         <v>19</v>
@@ -5845,233 +6028,233 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C126" s="7">
         <v>2</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F126" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6010</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H126" s="8">
         <v>50</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>79</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C127" s="7">
         <v>10</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F127" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H127" s="8">
         <v>15</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C128" s="7">
         <v>10</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F128" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H128" s="8">
         <v>15</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C129" s="7">
         <v>10</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F129" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H129" s="8">
         <v>15</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C130" s="7">
         <v>10</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F130" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H130" s="8">
         <v>15</v>
       </c>
       <c r="I130" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="J130" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C131" s="7">
         <v>10</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F131" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H131" s="8">
         <v>15</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C132" s="7">
         <v>10</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F132" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H132" s="8">
         <v>15</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F133" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA001</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H133" s="8">
         <v>78</v>
@@ -6083,23 +6266,23 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C134" s="7">
         <v>1</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F134" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA002</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H134" s="8">
         <v>89</v>
@@ -6111,23 +6294,23 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C135" s="7">
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F135" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA003</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H135" s="8">
         <v>89</v>
@@ -6139,23 +6322,23 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C136" s="7">
         <v>1</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F136" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA004</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H136" s="8">
         <v>168</v>
@@ -6167,23 +6350,23 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C137" s="7">
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F137" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA005</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H137" s="8">
         <v>145</v>
@@ -6195,23 +6378,23 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C138" s="7">
         <v>1</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F138" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA006</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H138" s="8">
         <v>123</v>
@@ -6223,23 +6406,23 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C139" s="7">
         <v>1</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F139" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA007</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H139" s="8">
         <v>179</v>
@@ -6251,23 +6434,23 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C140" s="7">
         <v>1</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F140" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA008</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H140" s="8">
         <v>145</v>
@@ -6279,23 +6462,23 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F141" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA009</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H141" s="8">
         <v>111</v>
@@ -6307,16 +6490,16 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F142" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6332,17 +6515,17 @@
     </row>
     <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143"/>
       <c r="E143" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F143" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6351,23 +6534,23 @@
       <c r="G143"/>
       <c r="H143" s="2"/>
       <c r="I143" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144"/>
       <c r="E144" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F144" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6376,25 +6559,25 @@
       <c r="G144"/>
       <c r="H144" s="2"/>
       <c r="I144" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145"/>
       <c r="E145" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F145" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6403,25 +6586,25 @@
       <c r="G145"/>
       <c r="H145" s="2"/>
       <c r="I145" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B146" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146"/>
       <c r="E146" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F146" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6438,16 +6621,16 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F147" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6463,17 +6646,17 @@
     </row>
     <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B148" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148"/>
       <c r="E148" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F148" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6482,23 +6665,23 @@
       <c r="G148"/>
       <c r="H148" s="2"/>
       <c r="I148" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B149" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149"/>
       <c r="E149" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F149" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6509,25 +6692,25 @@
         <v>40</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B150" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150"/>
       <c r="E150" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F150" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6544,17 +6727,17 @@
     </row>
     <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B151" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151"/>
       <c r="E151" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F151" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6569,17 +6752,17 @@
     </row>
     <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B152" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152"/>
       <c r="E152" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F152" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6594,17 +6777,17 @@
     </row>
     <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>408</v>
+      </c>
+      <c r="B153" t="s">
         <v>411</v>
-      </c>
-      <c r="B153" t="s">
-        <v>414</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153"/>
       <c r="E153" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F153" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6619,17 +6802,17 @@
     </row>
     <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B154" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154"/>
       <c r="E154" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F154" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6644,17 +6827,17 @@
     </row>
     <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B155" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155"/>
       <c r="E155" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F155" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6669,17 +6852,17 @@
     </row>
     <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B156" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156"/>
       <c r="E156" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F156" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6698,17 +6881,17 @@
     </row>
     <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B157" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157"/>
       <c r="E157" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F157" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6719,24 +6902,24 @@
         <v>59</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C158" s="7">
         <v>2</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F158" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6746,22 +6929,22 @@
         <v>78</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C159" s="7">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F159" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6777,23 +6960,23 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C160" s="7">
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F160" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA014</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H160" s="8">
         <v>55</v>
@@ -6802,6 +6985,1050 @@
         <v>11</v>
       </c>
       <c r="J160" s="3"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F161" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C162" s="7">
+        <v>1</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F162" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C163" s="7">
+        <v>1</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F163" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C164" s="7">
+        <v>1</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F164" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C165" s="7">
+        <v>1</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F165" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C166" s="7">
+        <v>1</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F166" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C167" s="7">
+        <v>1</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F167" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C168" s="7">
+        <v>1</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F168" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F169" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H169" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C170" s="7">
+        <v>1</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F170" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C171" s="7">
+        <v>1</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F171" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F172" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H172" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C173" s="7">
+        <v>1</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F173" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H173" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C174" s="7">
+        <v>1</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F174" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C175" s="7">
+        <v>1</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F175" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C176" s="7">
+        <v>1</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F176" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C177" s="7">
+        <v>1</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F177" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H177" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C178" s="7">
+        <v>1</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F178" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H178" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C179" s="7">
+        <v>1</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F179" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H179" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C180" s="7">
+        <v>1</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F180" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H180" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C181" s="7">
+        <v>1</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F181" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H181" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C182" s="7">
+        <v>1</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F182" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H182" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C183" s="7">
+        <v>1</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F183" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C184" s="7">
+        <v>1</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F184" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H184" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C185" s="7">
+        <v>1</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F185" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H185" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C186" s="7">
+        <v>1</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F186" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H186" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C187" s="7">
+        <v>2</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F187" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H187" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C188" s="7">
+        <v>2</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F188" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H188" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C189" s="7">
+        <v>2</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F189" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H189" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C190" s="7">
+        <v>2</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F190" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H190" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C191" s="7">
+        <v>2</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F191" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H191" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C192" s="7">
+        <v>2</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F192" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H192" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C193" s="7">
+        <v>2</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F193" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H193" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C194" s="7">
+        <v>2</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F194" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H194" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C195" s="7">
+        <v>2</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F195" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H195" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C196" s="7">
+        <v>2</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F196" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H196" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C197" s="7">
+        <v>2</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F197" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H197" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C198" s="7">
+        <v>2</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F198" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H198" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C199" s="7">
+        <v>2</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F199" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H199" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C200" s="7">
+        <v>3</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F200" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H200" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C201" s="7">
+        <v>3</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F201" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H201" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C202" s="7">
+        <v>3</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F202" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H202" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C203" s="7">
+        <v>3</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F203" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H203" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C204" s="7">
+        <v>3</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F204" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H204" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F205" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H205" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C206" s="7">
+        <v>3</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F206" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C207" s="7">
+        <v>4</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F207" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H207" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C208" s="7">
+        <v>4</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F208" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H208" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C209" s="7">
+        <v>4</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F209" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H209" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C210" s="7">
+        <v>5</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F210" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H210" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C211" s="7">
+        <v>5</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F211" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H211" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C212" s="7">
+        <v>5</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F212" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H212" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C213" s="7">
+        <v>5</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F213" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H213" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C214" s="7">
+        <v>6</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F214" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H214" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C215" s="7">
+        <v>6</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F215" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H215" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C216" s="7">
+        <v>6</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F216" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H216" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C217" s="7">
+        <v>8</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F217" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H217" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F218" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H218" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C219" s="7">
+        <v>116</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F219" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H219" s="8">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC1E16-B5EB-4AD3-8030-87964CE2611E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC62E5F-83BA-4EB9-92ED-4437EF83175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="557">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1523,78 +1523,9 @@
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215483985827/p/1/e/6/t/10301/1100196404795.mp4</t>
   </si>
   <si>
-    <t>Llavero Giratorio Escudo del Capitan America</t>
-  </si>
-  <si>
-    <t>Adaptador Cable OTG micro B</t>
-  </si>
-  <si>
-    <t>Auto de metal  Francesco Bernoull 6cm</t>
-  </si>
-  <si>
-    <t>Auto de metal Rayo McQueen 6cm</t>
-  </si>
-  <si>
-    <t>Biker casco de metal articulable 12cm Azul y Rojo</t>
-  </si>
-  <si>
-    <t>Cable Adaptador HDMI a VGA</t>
-  </si>
-  <si>
-    <t>CardPad con marca  Hyundai x5</t>
-  </si>
-  <si>
-    <t>CardPad con marca  Nissan x5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collar Titanic </t>
-  </si>
-  <si>
-    <t>Dedales Gamer x4</t>
-  </si>
-  <si>
-    <t>Embudo de Silicona Plegable 7x7cm</t>
-  </si>
-  <si>
-    <t>Figura de acción Broly 20CM</t>
-  </si>
-  <si>
-    <t>Figura de accion Groot</t>
-  </si>
-  <si>
-    <t>Figura de accion Shenglong</t>
-  </si>
-  <si>
-    <t>Figura Love Pareja - KISS ME</t>
-  </si>
-  <si>
-    <t>Llavero Metal Huesito Dota2</t>
-  </si>
-  <si>
-    <t>Llavero Principito</t>
-  </si>
-  <si>
-    <t>Llavero Strombreaker</t>
-  </si>
-  <si>
-    <t>Sticker Metal 3D TURBO 12x1.4cm Rojo, Negro y Blanco GRANDE</t>
-  </si>
-  <si>
-    <t>Sticker Metal 3D TURBO 9.7x1.1cm Rojo, Negro y Blanco</t>
-  </si>
-  <si>
     <t>Sticker para Libros x500</t>
   </si>
   <si>
-    <t>Sticker PET Pelota Beisbol</t>
-  </si>
-  <si>
-    <t>Sticker PET Respect for Bikers</t>
-  </si>
-  <si>
-    <t>TRACTOR / EXCABADORA 32CM</t>
-  </si>
-  <si>
     <t>Lector de Memorias Externo 15 en 1 x2</t>
   </si>
   <si>
@@ -1604,51 +1535,18 @@
     <t>Figura de acción Animalitos ceramica x6</t>
   </si>
   <si>
-    <t>Figura de acción Panditas Fluorescente Iluminados x5</t>
-  </si>
-  <si>
-    <t>ProBador de Voltaje 12V Truper</t>
-  </si>
-  <si>
-    <t>Sticker Epoxi PERU x4</t>
-  </si>
-  <si>
     <t>Sticker huellitas x2</t>
   </si>
   <si>
-    <t>Sticker Metal 3D GECKO Rojo, Negro, Amarillo y Blanco</t>
-  </si>
-  <si>
-    <t>Sticker Ojitos Molestos</t>
-  </si>
-  <si>
     <t>Sticker PET Flechas Moto</t>
   </si>
   <si>
-    <t>Sticker PET La Vita e Bella</t>
-  </si>
-  <si>
-    <t>Sujetador de gafas de Sol</t>
-  </si>
-  <si>
-    <t>Tapitas Fluorescente Iluminadas x4 Rosa</t>
-  </si>
-  <si>
-    <t>Sticker Cinta de arox20</t>
-  </si>
-  <si>
-    <t>Sticker Tanque de Gasolina</t>
-  </si>
-  <si>
     <t>Manito organizador adhesivo x2</t>
   </si>
   <si>
     <t>Sticker Gatito Fluorescente Luminoso</t>
   </si>
   <si>
-    <t>Sticker NO FUMAR</t>
-  </si>
-  <si>
     <t>Sticker PET Rana Verde</t>
   </si>
   <si>
@@ -1658,33 +1556,12 @@
     <t>Sticker Reflectivo Retrovisor x2</t>
   </si>
   <si>
-    <t xml:space="preserve">Mini Espejo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sticker PET Panal de Abeja 15x12cm </t>
-  </si>
-  <si>
-    <t>Trencitos ABS Rojo, Rosa, verde y Blanco</t>
-  </si>
-  <si>
-    <t>Sticker PET WiFi</t>
-  </si>
-  <si>
     <t>Tapitas de Neumaticos Calavera ABS y Cobre</t>
   </si>
   <si>
-    <t>CardPad con marca  Toyota x4</t>
-  </si>
-  <si>
     <t>Sticker Reflectivo emoticones x10</t>
   </si>
   <si>
-    <t>Sticker Protector Esquinas x2</t>
-  </si>
-  <si>
-    <t>Sticker Epoxi Autobot x4</t>
-  </si>
-  <si>
     <t>Sticker para manijas x4 colores</t>
   </si>
   <si>
@@ -1698,6 +1575,135 @@
   </si>
   <si>
     <t>varios</t>
+  </si>
+  <si>
+    <t>Llavero Giratorio Escudo del Capitan America ROJO</t>
+  </si>
+  <si>
+    <t>Adaptador Cable OTG micro B BLANCO</t>
+  </si>
+  <si>
+    <t>Auto de metal Rayo McQueen 6cm ROJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto de metal  Francesco Bernoull 6cm </t>
+  </si>
+  <si>
+    <t>Biker casco de metal articulable 12cm ROJO</t>
+  </si>
+  <si>
+    <t>Cable Adaptador HDMI a VGA NEGRO</t>
+  </si>
+  <si>
+    <t>CardPad con marca  Hyundai x5 NEGRO</t>
+  </si>
+  <si>
+    <t>CardPad con marca  Nissan x5 NEGRO</t>
+  </si>
+  <si>
+    <t>Collar Titanic AZUL</t>
+  </si>
+  <si>
+    <t>Dedales Gamer x4 NEGRO</t>
+  </si>
+  <si>
+    <t>Embudo de Silicona Plegable 7x7cm AZUL</t>
+  </si>
+  <si>
+    <t>Figura de acción Broly 20CM VERDE</t>
+  </si>
+  <si>
+    <t>Figura de accion Groot AMARILLO</t>
+  </si>
+  <si>
+    <t>Figura de accion Shenglong VERDE</t>
+  </si>
+  <si>
+    <t>Figura Love Pareja - KISS ME ROJO</t>
+  </si>
+  <si>
+    <t>Llavero Metal Huesito Dota2 BLANCO</t>
+  </si>
+  <si>
+    <t>Llavero Principito VERDE</t>
+  </si>
+  <si>
+    <t>Llavero Strombreaker MARRON</t>
+  </si>
+  <si>
+    <t>Sticker Metal 3D TURBO 12x1.4cm Rojo, NEGRO</t>
+  </si>
+  <si>
+    <t>Sticker PET Pelota Beisbol BLANCO</t>
+  </si>
+  <si>
+    <t>Sticker PET Respect for Bikers BLANCO</t>
+  </si>
+  <si>
+    <t>TRACTOR / EXCABADORA 32CM AMARILLO</t>
+  </si>
+  <si>
+    <t>Figura de acción Panditas Fluorescente Iluminados x5 VERDE</t>
+  </si>
+  <si>
+    <t>ProBador de Voltaje 12V Truper NARANJA</t>
+  </si>
+  <si>
+    <t>Sticker Epoxi PERU x4 ROJO</t>
+  </si>
+  <si>
+    <t>Sticker Metal 3D GECKO</t>
+  </si>
+  <si>
+    <t>Sticker Ojitos Molestos NEGRO</t>
+  </si>
+  <si>
+    <t>Sticker PET La Vita e Bella BLANCO</t>
+  </si>
+  <si>
+    <t>Sujetador de gafas de Sol NEGRO</t>
+  </si>
+  <si>
+    <t>Tapitas Fluorescente Iluminadas x4 Rosado</t>
+  </si>
+  <si>
+    <t>Sticker Cinta de arox20 BLANCO</t>
+  </si>
+  <si>
+    <t>Sticker Tanque de Gasolina BLANCO</t>
+  </si>
+  <si>
+    <t>Sticker NO FUMAR NEGRO</t>
+  </si>
+  <si>
+    <t>Mini Espejo NEGRO</t>
+  </si>
+  <si>
+    <t>Sticker PET Panal de Abeja 15x12cm BLANCO</t>
+  </si>
+  <si>
+    <t>Sticker PET WiFi BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trencitos ABS Rojo </t>
+  </si>
+  <si>
+    <t>Trencitos ABS Rosado</t>
+  </si>
+  <si>
+    <t>Trencitos ABS Verde</t>
+  </si>
+  <si>
+    <t>Trencitos ABS Blanco</t>
+  </si>
+  <si>
+    <t>CardPad con marca  Toyota x4 negro</t>
+  </si>
+  <si>
+    <t>Sticker Protector Esquinas x2 negro</t>
+  </si>
+  <si>
+    <t>Sticker Epoxi Autobot x4 negro</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1881,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K219" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:K219" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K221" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:K221" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -2196,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K219"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6988,13 +6994,13 @@
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="F161" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7006,7 +7012,7 @@
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C162" s="7">
         <v>1</v>
@@ -7024,7 +7030,7 @@
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="C163" s="7">
         <v>1</v>
@@ -7042,7 +7048,7 @@
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="C164" s="7">
         <v>1</v>
@@ -7060,7 +7066,7 @@
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="C165" s="7">
         <v>1</v>
@@ -7078,7 +7084,7 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C166" s="7">
         <v>1</v>
@@ -7096,7 +7102,7 @@
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="C167" s="7">
         <v>1</v>
@@ -7114,7 +7120,7 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="C168" s="7">
         <v>1</v>
@@ -7132,7 +7138,7 @@
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C169" s="7">
         <v>1</v>
@@ -7150,7 +7156,7 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="C170" s="7">
         <v>1</v>
@@ -7168,13 +7174,13 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C171" s="7">
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="F171" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7186,7 +7192,7 @@
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C172" s="7">
         <v>1</v>
@@ -7204,7 +7210,7 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="C173" s="7">
         <v>1</v>
@@ -7222,7 +7228,7 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="C174" s="7">
         <v>1</v>
@@ -7240,7 +7246,7 @@
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C175" s="7">
         <v>1</v>
@@ -7258,13 +7264,13 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="C176" s="7">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="F176" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7276,13 +7282,13 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="C177" s="7">
         <v>1</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="F177" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7294,13 +7300,13 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="C178" s="7">
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="F178" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7312,7 +7318,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C179" s="7">
         <v>1</v>
@@ -7330,7 +7336,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C180" s="7">
         <v>1</v>
@@ -7343,12 +7349,12 @@
         <v>0</v>
       </c>
       <c r="H180" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="C181" s="7">
         <v>1</v>
@@ -7361,12 +7367,12 @@
         <v>0</v>
       </c>
       <c r="H181" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C182" s="7">
         <v>1</v>
@@ -7384,79 +7390,79 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="C183" s="7">
         <v>1</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="F183" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H183" s="8">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C184" s="7">
         <v>1</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="F184" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H184" s="8">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C185" s="7">
         <v>1</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="F185" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H185" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="C186" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="F186" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H186" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="C187" s="7">
         <v>2</v>
@@ -7469,48 +7475,48 @@
         <v>0</v>
       </c>
       <c r="H187" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C188" s="7">
         <v>2</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F188" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H188" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="C189" s="7">
         <v>2</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="F189" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H189" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="C190" s="7">
         <v>2</v>
@@ -7528,7 +7534,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="C191" s="7">
         <v>2</v>
@@ -7541,12 +7547,12 @@
         <v>0</v>
       </c>
       <c r="H191" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="C192" s="7">
         <v>2</v>
@@ -7559,12 +7565,12 @@
         <v>0</v>
       </c>
       <c r="H192" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="C193" s="7">
         <v>2</v>
@@ -7582,7 +7588,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C194" s="7">
         <v>2</v>
@@ -7600,61 +7606,61 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C195" s="7">
         <v>2</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="F195" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H195" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C196" s="7">
         <v>2</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="F196" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H196" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C197" s="7">
         <v>2</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>554</v>
+        <v>475</v>
       </c>
       <c r="F197" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H197" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="C198" s="7">
         <v>2</v>
@@ -7667,15 +7673,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C199" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>475</v>
@@ -7685,12 +7691,12 @@
         <v>0</v>
       </c>
       <c r="H199" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C200" s="7">
         <v>3</v>
@@ -7703,12 +7709,12 @@
         <v>0</v>
       </c>
       <c r="H200" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C201" s="7">
         <v>3</v>
@@ -7721,12 +7727,12 @@
         <v>0</v>
       </c>
       <c r="H201" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="C202" s="7">
         <v>3</v>
@@ -7739,12 +7745,12 @@
         <v>0</v>
       </c>
       <c r="H202" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="C203" s="7">
         <v>3</v>
@@ -7761,38 +7767,38 @@
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C204" s="7">
+      <c r="F204" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H204" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C205" s="7">
         <v>3</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E205" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="F204" s="9">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H204" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F205" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H205" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C206" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>475</v>
@@ -7802,12 +7808,12 @@
         <v>0</v>
       </c>
       <c r="H206" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C207" s="7">
         <v>4</v>
@@ -7820,36 +7826,36 @@
         <v>0</v>
       </c>
       <c r="H207" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C208" s="7">
         <v>4</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="F208" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H208" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C209" s="7">
         <v>4</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="F209" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7861,43 +7867,43 @@
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C210" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="F210" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H210" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C211" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="F211" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H211" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C212" s="7">
         <v>5</v>
@@ -7910,18 +7916,18 @@
         <v>0</v>
       </c>
       <c r="H212" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="C213" s="7">
         <v>5</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="F213" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7933,10 +7939,10 @@
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C214" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>475</v>
@@ -7946,15 +7952,15 @@
         <v>0</v>
       </c>
       <c r="H214" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="C215" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>475</v>
@@ -7964,12 +7970,12 @@
         <v>0</v>
       </c>
       <c r="H215" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C216" s="7">
         <v>6</v>
@@ -7982,15 +7988,15 @@
         <v>0</v>
       </c>
       <c r="H216" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C217" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>475</v>
@@ -8000,24 +8006,33 @@
         <v>0</v>
       </c>
       <c r="H217" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C218" s="7">
+        <v>6</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>475</v>
+      </c>
       <c r="F218" s="9">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H218" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="C219" s="7">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>475</v>
@@ -8027,6 +8042,33 @@
         <v>0</v>
       </c>
       <c r="H219" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F220" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H220" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C221" s="7">
+        <v>116</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F221" s="9">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H221" s="8">
         <v>0.5</v>
       </c>
     </row>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC62E5F-83BA-4EB9-92ED-4437EF83175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B223A-6D48-4222-A643-217D3E069DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,9 +1280,6 @@
     <t>XIA007</t>
   </si>
   <si>
-    <t>Xiaomi 165W Power Bank 10000mAh Gris</t>
-  </si>
-  <si>
     <t>XIA008</t>
   </si>
   <si>
@@ -1316,9 +1313,6 @@
     <t>XIA001</t>
   </si>
   <si>
-    <t>Xiaomi Portable Bluetooth Speaker (5W) Negro</t>
-  </si>
-  <si>
     <t>XIA013</t>
   </si>
   <si>
@@ -1463,21 +1457,6 @@
     <t>Pegatina</t>
   </si>
   <si>
-    <t>Beetle Classic Rojo</t>
-  </si>
-  <si>
-    <t>Beetle Classic Amarillo</t>
-  </si>
-  <si>
-    <t>Beetle Classic Azul</t>
-  </si>
-  <si>
-    <t>Beetle Classic Negro</t>
-  </si>
-  <si>
-    <t>Beetle Classic Rosado</t>
-  </si>
-  <si>
     <t>https://sc04.alicdn.com/kf/Ha08ceb73583943a098141dae3f4c407dl/267859666/Ha08ceb73583943a098141dae3f4c407dl.jpg</t>
   </si>
   <si>
@@ -1490,9 +1469,6 @@
     <t>https://sc04.alicdn.com/kf/H1fac81f7fab34c1185cc07612d4d46f47/267859666/H1fac81f7fab34c1185cc07612d4d46f47.jpg</t>
   </si>
   <si>
-    <t>Beetle Classic Blanco</t>
-  </si>
-  <si>
     <t>https://s.alicdn.com/@sc04/kf/Hbaf18917990a4f72b3df35b06e621c86z.jpg?avif=close&amp;webp=close</t>
   </si>
   <si>
@@ -1547,9 +1523,6 @@
     <t>Sticker Gatito Fluorescente Luminoso</t>
   </si>
   <si>
-    <t>Sticker PET Rana Verde</t>
-  </si>
-  <si>
     <t>Sticker Cromado Gecko</t>
   </si>
   <si>
@@ -1685,25 +1658,52 @@
     <t>Sticker PET WiFi BLANCO</t>
   </si>
   <si>
-    <t xml:space="preserve">Trencitos ABS Rojo </t>
-  </si>
-  <si>
-    <t>Trencitos ABS Rosado</t>
-  </si>
-  <si>
-    <t>Trencitos ABS Verde</t>
-  </si>
-  <si>
-    <t>Trencitos ABS Blanco</t>
-  </si>
-  <si>
-    <t>CardPad con marca  Toyota x4 negro</t>
-  </si>
-  <si>
-    <t>Sticker Protector Esquinas x2 negro</t>
-  </si>
-  <si>
-    <t>Sticker Epoxi Autobot x4 negro</t>
+    <t>Beetle Classic ROJO</t>
+  </si>
+  <si>
+    <t>Beetle Classic AMARILLO</t>
+  </si>
+  <si>
+    <t>Beetle Classic AZUL</t>
+  </si>
+  <si>
+    <t>Beetle Classic NEGRO</t>
+  </si>
+  <si>
+    <t>Beetle Classic BLANCO</t>
+  </si>
+  <si>
+    <t>Beetle Classic ROSADO</t>
+  </si>
+  <si>
+    <t>Xiaomi Portable Bluetooth Speaker (5W) NEGRO</t>
+  </si>
+  <si>
+    <t>Xiaomi 165W Power Bank 10000mAh GRIS</t>
+  </si>
+  <si>
+    <t>Sticker PET Rana VERDE</t>
+  </si>
+  <si>
+    <t>Trencitos ABS ROJO</t>
+  </si>
+  <si>
+    <t>Trencitos ABS ROSADO</t>
+  </si>
+  <si>
+    <t>Trencitos ABS VERDE</t>
+  </si>
+  <si>
+    <t>Trencitos ABS BLANCO</t>
+  </si>
+  <si>
+    <t>CardPad con marca  Toyota x4 NEGRO</t>
+  </si>
+  <si>
+    <t>Sticker Protector Esquinas x2 NEGRO</t>
+  </si>
+  <si>
+    <t>Sticker Epoxi Autobot x4 NEGRO</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1812,7 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2204,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2267,14 +2266,14 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F2" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0100</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H2" s="8">
         <v>19</v>
@@ -2296,14 +2295,14 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F3" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H3" s="2">
         <v>46</v>
@@ -2327,14 +2326,14 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H4" s="2">
         <v>46</v>
@@ -2358,14 +2357,14 @@
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F5" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H5" s="2">
         <v>46</v>
@@ -2389,14 +2388,14 @@
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F6" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059</v>
       </c>
       <c r="G6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H6" s="2">
         <v>46</v>
@@ -2420,14 +2419,14 @@
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5059FB</v>
       </c>
       <c r="G7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2449,14 +2448,14 @@
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5440</v>
       </c>
       <c r="G8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H8" s="2">
         <v>28</v>
@@ -2477,14 +2476,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0100</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H9" s="8">
         <v>19</v>
@@ -2506,14 +2505,14 @@
       </c>
       <c r="D10"/>
       <c r="E10" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F10" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5057</v>
       </c>
       <c r="G10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H10" s="2">
         <v>46</v>
@@ -2537,14 +2536,14 @@
       </c>
       <c r="D11"/>
       <c r="E11" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F11" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H11" s="2">
         <v>37</v>
@@ -2568,14 +2567,14 @@
       </c>
       <c r="D12"/>
       <c r="E12" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F12" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H12" s="2">
         <v>37</v>
@@ -2599,14 +2598,14 @@
       </c>
       <c r="D13"/>
       <c r="E13" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F13" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H13" s="2">
         <v>37</v>
@@ -2630,14 +2629,14 @@
       </c>
       <c r="D14"/>
       <c r="E14" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F14" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5060</v>
       </c>
       <c r="G14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H14" s="2">
         <v>37</v>
@@ -2661,14 +2660,14 @@
       </c>
       <c r="D15"/>
       <c r="E15" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F15" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5330F</v>
       </c>
       <c r="G15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H15" s="2">
         <v>28</v>
@@ -2692,14 +2691,14 @@
       </c>
       <c r="D16"/>
       <c r="E16" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F16" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5361F</v>
       </c>
       <c r="G16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2721,14 +2720,14 @@
       </c>
       <c r="D17"/>
       <c r="E17" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F17" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5366</v>
       </c>
       <c r="G17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H17" s="2">
         <v>46</v>
@@ -2752,14 +2751,14 @@
       </c>
       <c r="D18"/>
       <c r="E18" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F18" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5427F</v>
       </c>
       <c r="G18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2782,14 +2781,14 @@
         <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H19" s="8">
         <v>19</v>
@@ -2810,14 +2809,14 @@
         <v>6</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>AD0101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H20" s="8">
         <v>12</v>
@@ -2838,14 +2837,14 @@
         <v>2</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F21" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1011</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
@@ -2867,14 +2866,14 @@
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F22" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -2898,14 +2897,14 @@
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F23" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -2929,14 +2928,14 @@
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F24" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -2960,14 +2959,14 @@
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F25" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5316</v>
       </c>
       <c r="G25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -2991,14 +2990,14 @@
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F26" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5390</v>
       </c>
       <c r="G26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -3022,14 +3021,14 @@
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F27" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5411</v>
       </c>
       <c r="G27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -3051,14 +3050,14 @@
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F28" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5412B</v>
       </c>
       <c r="G28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H28" s="2">
         <v>37</v>
@@ -3082,14 +3081,14 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F29" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -3113,14 +3112,14 @@
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F30" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -3144,14 +3143,14 @@
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F31" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -3175,14 +3174,14 @@
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F32" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -3206,14 +3205,14 @@
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F33" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5419</v>
       </c>
       <c r="G33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -3237,14 +3236,14 @@
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F34" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5438B</v>
       </c>
       <c r="G34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H34" s="2">
         <v>46</v>
@@ -3266,14 +3265,14 @@
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F35" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5438P</v>
       </c>
       <c r="G35" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H35" s="2">
         <v>46</v>
@@ -3297,14 +3296,14 @@
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F36" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5445B</v>
       </c>
       <c r="G36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -3326,14 +3325,14 @@
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F37" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5039</v>
       </c>
       <c r="G37" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -3355,14 +3354,14 @@
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F38" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5081</v>
       </c>
       <c r="G38" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -3386,14 +3385,14 @@
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F39" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5081</v>
       </c>
       <c r="G39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -3417,14 +3416,14 @@
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F40" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5317</v>
       </c>
       <c r="G40" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H40" s="2">
         <v>46</v>
@@ -3446,14 +3445,14 @@
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F41" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G41" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -3477,14 +3476,14 @@
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F42" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G42" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -3508,14 +3507,14 @@
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F43" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G43" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -3539,14 +3538,14 @@
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F44" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5319</v>
       </c>
       <c r="G44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -3570,14 +3569,14 @@
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F45" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5328</v>
       </c>
       <c r="G45" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H45" s="2">
         <v>37</v>
@@ -3601,14 +3600,14 @@
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F46" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
       </c>
       <c r="G46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H46" s="2">
         <v>37</v>
@@ -3632,14 +3631,14 @@
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F47" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -3663,14 +3662,14 @@
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F48" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G48" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -3694,14 +3693,14 @@
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F49" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G49" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -3725,14 +3724,14 @@
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F50" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5349</v>
       </c>
       <c r="G50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -3756,14 +3755,14 @@
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F51" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H51" s="2">
         <v>46</v>
@@ -3787,14 +3786,14 @@
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F52" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H52" s="2">
         <v>46</v>
@@ -3818,14 +3817,14 @@
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F53" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5352</v>
       </c>
       <c r="G53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H53" s="2">
         <v>46</v>
@@ -3849,14 +3848,14 @@
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F54" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G54" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H54" s="2">
         <v>37</v>
@@ -3880,14 +3879,14 @@
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F55" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G55" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -3911,14 +3910,14 @@
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F56" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G56" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -3942,14 +3941,14 @@
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F57" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5358</v>
       </c>
       <c r="G57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -3973,14 +3972,14 @@
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F58" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G58" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H58" s="2">
         <v>46</v>
@@ -4004,14 +4003,14 @@
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F59" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G59" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H59" s="2">
         <v>46</v>
@@ -4035,14 +4034,14 @@
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F60" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G60" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H60" s="2">
         <v>46</v>
@@ -4066,14 +4065,14 @@
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F61" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5392</v>
       </c>
       <c r="G61" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H61" s="2">
         <v>46</v>
@@ -4097,14 +4096,14 @@
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F62" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5393</v>
       </c>
       <c r="G62" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -4126,14 +4125,14 @@
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F63" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5403</v>
       </c>
       <c r="G63" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H63" s="2">
         <v>46</v>
@@ -4155,14 +4154,14 @@
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F64" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G64" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -4186,14 +4185,14 @@
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F65" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G65" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -4217,14 +4216,14 @@
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F66" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G66" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -4248,14 +4247,14 @@
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F67" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -4279,14 +4278,14 @@
       </c>
       <c r="D68"/>
       <c r="E68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F68" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G68" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -4310,14 +4309,14 @@
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F69" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5408</v>
       </c>
       <c r="G69" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -4341,14 +4340,14 @@
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F70" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G70" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -4372,14 +4371,14 @@
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F71" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G71" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -4403,14 +4402,14 @@
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F72" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G72" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -4434,14 +4433,14 @@
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F73" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5428</v>
       </c>
       <c r="G73" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -4464,14 +4463,14 @@
         <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F74" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1012</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H74" s="8">
         <v>19</v>
@@ -4492,14 +4491,14 @@
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F75" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1013</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H75" s="8">
         <v>28</v>
@@ -4521,14 +4520,14 @@
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F76" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G76" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H76" s="2">
         <v>28</v>
@@ -4552,14 +4551,14 @@
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F77" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G77" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -4583,14 +4582,14 @@
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F78" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -4614,14 +4613,14 @@
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F79" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5341</v>
       </c>
       <c r="G79" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -4644,14 +4643,14 @@
         <v>1</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F80" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1014</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H80" s="8">
         <v>28</v>
@@ -4673,14 +4672,14 @@
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F81" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5355</v>
       </c>
       <c r="G81" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H81" s="2">
         <v>46</v>
@@ -4704,14 +4703,14 @@
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F82" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G82" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H82" s="2">
         <v>46</v>
@@ -4735,14 +4734,14 @@
       </c>
       <c r="D83"/>
       <c r="E83" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F83" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G83" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H83" s="2">
         <v>46</v>
@@ -4766,14 +4765,14 @@
       </c>
       <c r="D84"/>
       <c r="E84" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F84" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G84" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H84" s="2">
         <v>46</v>
@@ -4797,14 +4796,14 @@
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F85" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5391F</v>
       </c>
       <c r="G85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H85" s="2">
         <v>46</v>
@@ -4826,14 +4825,14 @@
       </c>
       <c r="D86"/>
       <c r="E86" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F86" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G86" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H86" s="2">
         <v>46</v>
@@ -4857,14 +4856,14 @@
       </c>
       <c r="D87"/>
       <c r="E87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F87" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G87" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H87" s="2">
         <v>46</v>
@@ -4888,14 +4887,14 @@
       </c>
       <c r="D88"/>
       <c r="E88" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F88" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G88" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H88" s="2">
         <v>46</v>
@@ -4919,14 +4918,14 @@
       </c>
       <c r="D89"/>
       <c r="E89" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F89" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v xml:space="preserve">KT5416 </v>
       </c>
       <c r="G89" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H89" s="2">
         <v>46</v>
@@ -4950,14 +4949,14 @@
       </c>
       <c r="D90"/>
       <c r="E90" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F90" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5423</v>
       </c>
       <c r="G90" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H90" s="2">
         <v>46</v>
@@ -4981,14 +4980,14 @@
       </c>
       <c r="D91"/>
       <c r="E91" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F91" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G91" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -5012,14 +5011,14 @@
       </c>
       <c r="D92"/>
       <c r="E92" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F92" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G92" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -5043,14 +5042,14 @@
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F93" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G93" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -5074,14 +5073,14 @@
       </c>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F94" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5425</v>
       </c>
       <c r="G94" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -5105,14 +5104,14 @@
       </c>
       <c r="D95"/>
       <c r="E95" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F95" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5437</v>
       </c>
       <c r="G95" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -5136,14 +5135,14 @@
       </c>
       <c r="D96"/>
       <c r="E96" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F96" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5437</v>
       </c>
       <c r="G96" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -5167,14 +5166,14 @@
       </c>
       <c r="D97"/>
       <c r="E97" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F97" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5442</v>
       </c>
       <c r="G97" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H97" s="2">
         <v>46</v>
@@ -5198,14 +5197,14 @@
       </c>
       <c r="D98"/>
       <c r="E98" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F98" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5455F</v>
       </c>
       <c r="G98" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -5229,14 +5228,14 @@
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F99" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5313</v>
       </c>
       <c r="G99" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -5260,14 +5259,14 @@
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F100" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G100" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -5291,14 +5290,14 @@
       </c>
       <c r="D101"/>
       <c r="E101" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F101" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G101" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -5322,14 +5321,14 @@
       </c>
       <c r="D102"/>
       <c r="E102" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F102" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G102" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -5353,14 +5352,14 @@
       </c>
       <c r="D103"/>
       <c r="E103" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F103" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5337</v>
       </c>
       <c r="G103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H103" s="2">
         <v>28</v>
@@ -5384,14 +5383,14 @@
       </c>
       <c r="D104"/>
       <c r="E104" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F104" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G104" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H104" s="2">
         <v>46</v>
@@ -5415,14 +5414,14 @@
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F105" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G105" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H105" s="2">
         <v>37</v>
@@ -5446,14 +5445,14 @@
       </c>
       <c r="D106"/>
       <c r="E106" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F106" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G106" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H106" s="2">
         <v>46</v>
@@ -5477,14 +5476,14 @@
       </c>
       <c r="D107"/>
       <c r="E107" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F107" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5402</v>
       </c>
       <c r="G107" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H107" s="2">
         <v>46</v>
@@ -5508,14 +5507,14 @@
       </c>
       <c r="D108"/>
       <c r="E108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F108" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G108" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -5539,14 +5538,14 @@
       </c>
       <c r="D109"/>
       <c r="E109" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F109" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G109" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -5570,14 +5569,14 @@
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F110" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G110" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -5601,14 +5600,14 @@
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F111" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5418</v>
       </c>
       <c r="G111" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -5632,14 +5631,14 @@
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F112" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5436P</v>
       </c>
       <c r="G112" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H112" s="2">
         <v>46</v>
@@ -5663,14 +5662,14 @@
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F113" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1003</v>
       </c>
       <c r="G113" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H113" s="2">
         <v>22</v>
@@ -5693,14 +5692,14 @@
         <v>1</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F114" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>EL1014</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H114" s="8">
         <v>28</v>
@@ -5721,14 +5720,14 @@
         <v>2</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F115" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1001</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H115" s="8">
         <v>40</v>
@@ -5737,7 +5736,7 @@
         <v>90</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5751,14 +5750,14 @@
         <v>2</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F116" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1004</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H116" s="8">
         <v>29</v>
@@ -5767,7 +5766,7 @@
         <v>93</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5781,14 +5780,14 @@
         <v>1</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F117" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1005</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H117" s="8">
         <v>19</v>
@@ -5809,14 +5808,14 @@
         <v>1</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F118" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>FA1006</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H118" s="8">
         <v>19</v>
@@ -5837,20 +5836,20 @@
         <v>1</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F119" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5332</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H119" s="8">
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J119" s="4" t="s">
         <v>200</v>
@@ -5867,20 +5866,20 @@
         <v>1</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F120" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5332</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H120" s="8">
         <v>37</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J120" s="3"/>
     </row>
@@ -5895,20 +5894,20 @@
         <v>1</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F121" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H121" s="8">
         <v>28</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>30</v>
@@ -5925,14 +5924,14 @@
         <v>1</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F122" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5343</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H122" s="8">
         <v>28</v>
@@ -5955,14 +5954,14 @@
         <v>1</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F123" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5385</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H123" s="8">
         <v>37</v>
@@ -5985,14 +5984,14 @@
         <v>1</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F124" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT5412B</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H124" s="8">
         <v>28</v>
@@ -6001,7 +6000,7 @@
         <v>136</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6015,14 +6014,14 @@
         <v>1</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F125" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6009</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H125" s="8">
         <v>19</v>
@@ -6043,14 +6042,14 @@
         <v>2</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F126" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6010</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H126" s="8">
         <v>50</v>
@@ -6059,7 +6058,7 @@
         <v>79</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -6067,29 +6066,29 @@
         <v>289</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="C127" s="7">
         <v>10</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F127" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H127" s="8">
         <v>15</v>
       </c>
       <c r="I127" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6097,29 +6096,29 @@
         <v>289</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="C128" s="7">
         <v>10</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F128" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H128" s="8">
         <v>15</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -6127,29 +6126,29 @@
         <v>289</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="C129" s="7">
         <v>10</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F129" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H129" s="8">
         <v>15</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -6157,29 +6156,29 @@
         <v>289</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="C130" s="7">
         <v>10</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F130" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H130" s="8">
         <v>15</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -6187,29 +6186,29 @@
         <v>289</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="C131" s="7">
         <v>10</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F131" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H131" s="8">
         <v>15</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -6217,50 +6216,50 @@
         <v>289</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="C132" s="7">
         <v>10</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F132" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>KT6011</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H132" s="8">
         <v>15</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F133" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA001</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H133" s="8">
         <v>78</v>
@@ -6281,14 +6280,14 @@
         <v>1</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F134" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA002</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H134" s="8">
         <v>89</v>
@@ -6309,14 +6308,14 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F135" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA003</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H135" s="8">
         <v>89</v>
@@ -6337,14 +6336,14 @@
         <v>1</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F136" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA004</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H136" s="8">
         <v>168</v>
@@ -6356,23 +6355,23 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="C137" s="7">
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F137" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA005</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H137" s="8">
         <v>145</v>
@@ -6384,23 +6383,23 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="C138" s="7">
         <v>1</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F138" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA006</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H138" s="8">
         <v>123</v>
@@ -6415,20 +6414,20 @@
         <v>414</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>415</v>
+        <v>548</v>
       </c>
       <c r="C139" s="7">
         <v>1</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F139" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA007</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H139" s="8">
         <v>179</v>
@@ -6440,23 +6439,23 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="C140" s="7">
         <v>1</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F140" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA008</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H140" s="8">
         <v>145</v>
@@ -6468,23 +6467,23 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F141" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA009</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H141" s="8">
         <v>111</v>
@@ -6496,16 +6495,16 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F142" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6531,7 +6530,7 @@
       </c>
       <c r="D143"/>
       <c r="E143" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F143" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6556,7 +6555,7 @@
       </c>
       <c r="D144"/>
       <c r="E144" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F144" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6583,7 +6582,7 @@
       </c>
       <c r="D145"/>
       <c r="E145" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F145" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6610,7 +6609,7 @@
       </c>
       <c r="D146"/>
       <c r="E146" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F146" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6627,16 +6626,16 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F147" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6662,7 +6661,7 @@
       </c>
       <c r="D148"/>
       <c r="E148" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F148" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6687,7 +6686,7 @@
       </c>
       <c r="D149"/>
       <c r="E149" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F149" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6716,7 +6715,7 @@
       </c>
       <c r="D150"/>
       <c r="E150" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F150" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6743,7 +6742,7 @@
       </c>
       <c r="D151"/>
       <c r="E151" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F151" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6768,7 +6767,7 @@
       </c>
       <c r="D152"/>
       <c r="E152" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F152" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6793,7 +6792,7 @@
       </c>
       <c r="D153"/>
       <c r="E153" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F153" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6818,7 +6817,7 @@
       </c>
       <c r="D154"/>
       <c r="E154" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F154" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6843,7 +6842,7 @@
       </c>
       <c r="D155"/>
       <c r="E155" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F155" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6868,7 +6867,7 @@
       </c>
       <c r="D156"/>
       <c r="E156" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F156" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6897,7 +6896,7 @@
       </c>
       <c r="D157"/>
       <c r="E157" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F157" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6925,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F158" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6941,16 +6940,16 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C159" s="7">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F159" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6966,23 +6965,23 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C160" s="7">
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F160" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>XIA014</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H160" s="8">
         <v>55</v>
@@ -6994,15 +6993,15 @@
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F161" s="9">
+        <v>503</v>
+      </c>
+      <c r="F161" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7012,15 +7011,15 @@
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C162" s="7">
         <v>1</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F162" s="9">
+        <v>443</v>
+      </c>
+      <c r="F162" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7030,15 +7029,15 @@
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C163" s="7">
         <v>1</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F163" s="9">
+        <v>481</v>
+      </c>
+      <c r="F163" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7048,15 +7047,15 @@
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C164" s="7">
         <v>1</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F164" s="9">
+        <v>481</v>
+      </c>
+      <c r="F164" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7066,15 +7065,15 @@
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C165" s="7">
         <v>1</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F165" s="9">
+        <v>481</v>
+      </c>
+      <c r="F165" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7084,15 +7083,15 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C166" s="7">
         <v>1</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F166" s="9">
+        <v>443</v>
+      </c>
+      <c r="F166" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7102,15 +7101,15 @@
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C167" s="7">
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F167" s="9">
+        <v>473</v>
+      </c>
+      <c r="F167" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7120,15 +7119,15 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C168" s="7">
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F168" s="9">
+        <v>473</v>
+      </c>
+      <c r="F168" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7138,15 +7137,15 @@
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C169" s="7">
         <v>1</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F169" s="9">
+        <v>481</v>
+      </c>
+      <c r="F169" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7156,15 +7155,15 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C170" s="7">
         <v>1</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F170" s="9">
+        <v>443</v>
+      </c>
+      <c r="F170" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7174,15 +7173,15 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C171" s="7">
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F171" s="9">
+        <v>504</v>
+      </c>
+      <c r="F171" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7192,15 +7191,15 @@
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C172" s="7">
         <v>1</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F172" s="9">
+        <v>445</v>
+      </c>
+      <c r="F172" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7210,15 +7209,15 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C173" s="7">
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F173" s="9">
+        <v>445</v>
+      </c>
+      <c r="F173" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7228,15 +7227,15 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C174" s="7">
         <v>1</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F174" s="9">
+        <v>445</v>
+      </c>
+      <c r="F174" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7246,15 +7245,15 @@
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C175" s="7">
         <v>1</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F175" s="9">
+        <v>445</v>
+      </c>
+      <c r="F175" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7264,15 +7263,15 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C176" s="7">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F176" s="9">
+        <v>503</v>
+      </c>
+      <c r="F176" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7282,15 +7281,15 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C177" s="7">
         <v>1</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F177" s="9">
+        <v>503</v>
+      </c>
+      <c r="F177" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7300,15 +7299,15 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C178" s="7">
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F178" s="9">
+        <v>503</v>
+      </c>
+      <c r="F178" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7318,15 +7317,15 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C179" s="7">
         <v>1</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F179" s="9">
+        <v>473</v>
+      </c>
+      <c r="F179" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7336,15 +7335,15 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C180" s="7">
         <v>1</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F180" s="9">
+        <v>473</v>
+      </c>
+      <c r="F180" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7354,15 +7353,15 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C181" s="7">
         <v>1</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F181" s="9">
+        <v>473</v>
+      </c>
+      <c r="F181" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7372,15 +7371,15 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C182" s="7">
         <v>1</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F182" s="9">
+        <v>473</v>
+      </c>
+      <c r="F182" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7390,15 +7389,15 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C183" s="7">
         <v>1</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F183" s="9">
+        <v>481</v>
+      </c>
+      <c r="F183" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7408,15 +7407,15 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C184" s="7">
         <v>1</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F184" s="9">
+        <v>443</v>
+      </c>
+      <c r="F184" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7426,15 +7425,15 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C185" s="7">
         <v>1</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F185" s="9">
+        <v>473</v>
+      </c>
+      <c r="F185" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7444,15 +7443,15 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C186" s="7">
         <v>2</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F186" s="9">
+        <v>445</v>
+      </c>
+      <c r="F186" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7462,15 +7461,15 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C187" s="7">
         <v>2</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F187" s="9">
+        <v>445</v>
+      </c>
+      <c r="F187" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7480,15 +7479,15 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C188" s="7">
         <v>2</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F188" s="9">
+        <v>443</v>
+      </c>
+      <c r="F188" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7498,15 +7497,15 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C189" s="7">
         <v>2</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F189" s="9">
+        <v>473</v>
+      </c>
+      <c r="F189" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7516,15 +7515,15 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C190" s="7">
         <v>2</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F190" s="9">
+        <v>473</v>
+      </c>
+      <c r="F190" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7534,15 +7533,15 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C191" s="7">
         <v>2</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F191" s="9">
+        <v>473</v>
+      </c>
+      <c r="F191" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7552,15 +7551,15 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C192" s="7">
         <v>2</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F192" s="9">
+        <v>473</v>
+      </c>
+      <c r="F192" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7570,15 +7569,15 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C193" s="7">
         <v>2</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F193" s="9">
+        <v>473</v>
+      </c>
+      <c r="F193" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7588,15 +7587,15 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C194" s="7">
         <v>2</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F194" s="9">
+        <v>473</v>
+      </c>
+      <c r="F194" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7606,15 +7605,15 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C195" s="7">
         <v>2</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F195" s="9">
+        <v>504</v>
+      </c>
+      <c r="F195" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7624,15 +7623,15 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C196" s="7">
         <v>2</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F196" s="9">
+        <v>504</v>
+      </c>
+      <c r="F196" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7642,15 +7641,15 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C197" s="7">
         <v>2</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F197" s="9">
+        <v>473</v>
+      </c>
+      <c r="F197" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7660,15 +7659,15 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C198" s="7">
         <v>2</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F198" s="9">
+        <v>473</v>
+      </c>
+      <c r="F198" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7678,15 +7677,15 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C199" s="7">
         <v>3</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F199" s="9">
+        <v>473</v>
+      </c>
+      <c r="F199" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7696,15 +7695,15 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C200" s="7">
         <v>3</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F200" s="9">
+        <v>473</v>
+      </c>
+      <c r="F200" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7714,15 +7713,15 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C201" s="7">
         <v>3</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F201" s="9">
+        <v>473</v>
+      </c>
+      <c r="F201" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7732,15 +7731,15 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="C202" s="7">
         <v>3</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F202" s="9">
+        <v>473</v>
+      </c>
+      <c r="F202" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7750,15 +7749,15 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C203" s="7">
         <v>3</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F203" s="9">
+        <v>473</v>
+      </c>
+      <c r="F203" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7767,7 +7766,7 @@
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F204" s="9">
+      <c r="F204" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7777,15 +7776,15 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C205" s="7">
         <v>3</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F205" s="9">
+        <v>473</v>
+      </c>
+      <c r="F205" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7795,15 +7794,15 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C206" s="7">
         <v>4</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F206" s="9">
+        <v>473</v>
+      </c>
+      <c r="F206" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7813,15 +7812,15 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C207" s="7">
         <v>4</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F207" s="9">
+        <v>473</v>
+      </c>
+      <c r="F207" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7837,9 +7836,9 @@
         <v>4</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F208" s="9">
+        <v>504</v>
+      </c>
+      <c r="F208" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7855,9 +7854,9 @@
         <v>4</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F209" s="9">
+        <v>504</v>
+      </c>
+      <c r="F209" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7873,9 +7872,9 @@
         <v>4</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F210" s="9">
+        <v>504</v>
+      </c>
+      <c r="F210" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7891,9 +7890,9 @@
         <v>4</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F211" s="9">
+        <v>504</v>
+      </c>
+      <c r="F211" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7903,15 +7902,15 @@
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C212" s="7">
         <v>5</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F212" s="9">
+        <v>473</v>
+      </c>
+      <c r="F212" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7921,15 +7920,15 @@
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C213" s="7">
         <v>5</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F213" s="9">
+        <v>504</v>
+      </c>
+      <c r="F213" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7945,9 +7944,9 @@
         <v>5</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F214" s="9">
+        <v>473</v>
+      </c>
+      <c r="F214" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7957,15 +7956,15 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C215" s="7">
         <v>5</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F215" s="9">
+        <v>473</v>
+      </c>
+      <c r="F215" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7981,9 +7980,9 @@
         <v>6</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F216" s="9">
+        <v>473</v>
+      </c>
+      <c r="F216" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -7999,9 +7998,9 @@
         <v>6</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F217" s="9">
+        <v>473</v>
+      </c>
+      <c r="F217" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -8011,15 +8010,15 @@
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C218" s="7">
         <v>6</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F218" s="9">
+        <v>473</v>
+      </c>
+      <c r="F218" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -8029,15 +8028,15 @@
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C219" s="7">
         <v>8</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F219" s="9">
+        <v>473</v>
+      </c>
+      <c r="F219" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -8046,7 +8045,7 @@
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F220" s="9">
+      <c r="F220" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -8056,15 +8055,15 @@
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C221" s="7">
         <v>116</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F221" s="9">
+        <v>473</v>
+      </c>
+      <c r="F221" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B223A-6D48-4222-A643-217D3E069DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBB1841-1E52-4FF7-AE1C-021161DDA78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="587">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1475,9 +1475,6 @@
     <t>https://s.alicdn.com/@sc04/kf/Hb562e8caece54810a61a606d3c45a988g.jpg?avif=close&amp;webp=close</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
     <t>Coleccionable</t>
   </si>
   <si>
@@ -1704,6 +1701,99 @@
   </si>
   <si>
     <t>Sticker Epoxi Autobot x4 NEGRO</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sf0d4abbdfeb44ec39b48964759bbef6fy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.inka-store.com/wp-content/uploads/2020/08/ADAPTADOR-OTG-MICRO-USB-V8-BLANCO.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S640281a8c62543e1af59b67fd53bfbadF.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S1661bc4ed8684be199ad4a36375cde44z.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S2834ac48c3454bbebd399c59563cc3e1v.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://gv-vod-cdn.aliexpress-media.com/80ffc57ef0293a3a/ae_sg_item/4n2oivxN6QwhQaYeupe_1100038118921_mp4_264_hd.mp4</t>
+  </si>
+  <si>
+    <t>13.5cm x 6cm</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/H7da6941d6fe546c180e1b2bae2f33f0bo.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S7a8020ba109147a5b7ccf042892ed632o.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/He2a24ba1d2834191b0697cf143076fa4a.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S0e4066ee884e42f6a473d4895131e032d.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sd0e1464339424f9c976b928375581ddbo.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S4d7b159e16954d2e9c91f7647ee3855ec.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S12973c4201b14ce9866d14b525423281m.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/Scb1dc0a4de894effa92b37b1cf784e48o.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210851450434/p/1/e/6/t/10301/4000293872397.mp4</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S0fc654d94f704fa3be0c4368a58bb7ba0.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/H0caae5cf7cb24921b4f16cb972c5b734o.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sc780cd17f32d4d67ae0c5cd07be732f72.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S0b8aca3fe5954cb2bf2f1d8400fde460y.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S9cc952e27c0342adb3cd3e5e1baf5b94n.jpg</t>
+  </si>
+  <si>
+    <t>https://gv-vod-cdn.aliexpress-media.com/80ffc57ef0293a3a/ae_sg_item/1695715804178/edd75e7cf8c78b0f.mp4_1100184795546_mp4_264_sd.mp4</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S6c434b472e3a42b1b2915c48c2f1a834o.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S23e339e5f6e645e28306c4b9ef914074J.jpg_960x960q75.jpg_.avif</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/Sf627f6d2185a42ef9ac7a5d71d081d83y.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S9281a9191d8343119771c9be3e11645fs.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/H56e6f725dbe64d7c986a8110c65cb9feJ.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/H92f1b9d5e3b34be7b3be8718e1f7f8cbt.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/Ha40db9d28408429f9171eeb02853f1b8C.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Hf44974b8c0fc4b2cb8eda004b53ea59cu.jpg</t>
+  </si>
+  <si>
+    <t>EN TRANSITO</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1803,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1749,6 +1839,13 @@
     <font>
       <sz val="8"/>
       <color theme="3"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1792,7 +1889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1812,6 +1909,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,8 +1980,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K221" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:K221" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J226" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:J226" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -1892,10 +1992,10 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J160">
-    <sortCondition ref="A1:A160"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J221">
+    <sortCondition ref="H1:H221"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO"/>
     <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION"/>
     <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK"/>
@@ -1908,7 +2008,6 @@
     <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN"/>
     <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL"/>
-    <tableColumn id="11" xr3:uid="{DD22C7D1-47EF-4A3F-A794-5A144B1E672B}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2201,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K221"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225:C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,10 +2316,10 @@
     <col min="6" max="6" width="9.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,45 +2344,36 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>308</v>
-      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>309</v>
+        <v>501</v>
       </c>
       <c r="C2" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F2" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>448</v>
+      <c r="F2" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>19</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>383</v>
       </c>
@@ -2314,7 +2404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -2345,7 +2435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>383</v>
       </c>
@@ -2376,7 +2466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>383</v>
       </c>
@@ -2407,7 +2497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>388</v>
       </c>
@@ -2436,7 +2526,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>318</v>
       </c>
@@ -2465,35 +2555,29 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>308</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>310</v>
+        <v>505</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H9" s="8">
-        <v>19</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -2524,7 +2608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -2555,7 +2639,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -2586,7 +2670,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -2617,7 +2701,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -2648,7 +2732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -2679,7 +2763,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -2771,88 +2855,64 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="B19" s="7" t="s">
-        <v>311</v>
+        <v>534</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F19" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>448</v>
+      <c r="F19" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>19</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="B20" s="7" t="s">
-        <v>285</v>
+        <v>500</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F20" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>AD0101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>447</v>
+      <c r="F20" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>12</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="B21" s="7" t="s">
-        <v>331</v>
+        <v>514</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F21" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1011</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>455</v>
+        <v>503</v>
+      </c>
+      <c r="F21" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
-        <v>19</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4453,60 +4513,50 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="B74" s="7" t="s">
-        <v>335</v>
+        <v>487</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F74" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1012</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
+      </c>
+      <c r="F74" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H74" s="8">
-        <v>19</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J74" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="B75" s="7" t="s">
-        <v>338</v>
+        <v>533</v>
       </c>
       <c r="C75" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F75" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1013</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>457</v>
+        <v>503</v>
+      </c>
+      <c r="F75" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H75" s="8">
-        <v>28</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J75" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4633,32 +4683,23 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="B80" s="7" t="s">
-        <v>333</v>
+        <v>493</v>
       </c>
       <c r="C80" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F80" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1014</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
+      </c>
+      <c r="F80" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H80" s="8">
-        <v>28</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J80" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -5682,841 +5723,590 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="B114" s="7" t="s">
-        <v>336</v>
+        <v>536</v>
       </c>
       <c r="C114" s="7">
+        <v>3</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
+        <v>4</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C115" s="7">
         <v>1</v>
       </c>
-      <c r="E114" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F114" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>EL1014</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H114" s="8">
-        <v>28</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C115" s="7">
-        <v>2</v>
-      </c>
       <c r="E115" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F115" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1001</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>454</v>
+        <v>502</v>
+      </c>
+      <c r="F115" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H115" s="8">
-        <v>40</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>486</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="B116" s="7" t="s">
-        <v>323</v>
+        <v>523</v>
       </c>
       <c r="C116" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F116" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1004</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>451</v>
+        <v>473</v>
+      </c>
+      <c r="F116" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H116" s="8">
-        <v>29</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>485</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="B117" s="7" t="s">
-        <v>327</v>
+        <v>524</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F117" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1005</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>453</v>
+        <v>473</v>
+      </c>
+      <c r="F117" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H117" s="8">
-        <v>19</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J117" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="J117" s="7"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="B118" s="7" t="s">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="C118" s="7">
         <v>1</v>
       </c>
       <c r="E118" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F118" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="8">
+        <v>5</v>
+      </c>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C119" s="7">
+        <v>2</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F118" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>FA1006</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H118" s="8">
-        <v>19</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="7">
+      <c r="F119" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="8">
+        <v>5</v>
+      </c>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C120" s="7">
+        <v>2</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F120" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="8">
+        <v>5</v>
+      </c>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="7">
+        <v>2</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F121" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="8">
+        <v>5</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C122" s="7">
+        <v>2</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F122" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="8">
+        <v>5</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C123" s="7">
+        <v>2</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F123" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="8">
+        <v>5</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C124" s="7">
+        <v>2</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F124" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="8">
+        <v>5</v>
+      </c>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C125" s="7">
+        <v>2</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="8">
+        <v>5</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C126" s="7">
+        <v>3</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F126" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="8">
+        <v>5</v>
+      </c>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C127" s="7">
+        <v>3</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F127" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
+        <v>5</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C128" s="7">
+        <v>3</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F128" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H128" s="8">
+        <v>5</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C129" s="7">
+        <v>4</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F129" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
+        <v>5</v>
+      </c>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C130" s="7">
+        <v>5</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F130" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="8">
+        <v>5</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C131" s="7">
+        <v>6</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F131" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="8">
+        <v>5</v>
+      </c>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C132" s="7">
         <v>1</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F119" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H119" s="8">
-        <v>37</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C120" s="7">
-        <v>1</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F120" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5332</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H120" s="8">
-        <v>37</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C121" s="7">
-        <v>1</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F121" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H121" s="8">
-        <v>28</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C122" s="7">
-        <v>1</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F122" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5343</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H122" s="8">
-        <v>28</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C123" s="7">
-        <v>1</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F123" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5385</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H123" s="8">
-        <v>37</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C124" s="7">
-        <v>1</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F124" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT5412B</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H124" s="8">
-        <v>28</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C125" s="7">
-        <v>1</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F125" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6009</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H125" s="8">
-        <v>19</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C126" s="7">
+      <c r="E132" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F132" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
+        <v>6</v>
+      </c>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" s="7">
         <v>2</v>
       </c>
-      <c r="E126" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F126" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6010</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H126" s="8">
-        <v>50</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C127" s="7">
-        <v>10</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F127" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H127" s="8">
-        <v>15</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="C128" s="7">
-        <v>10</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F128" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H128" s="8">
-        <v>15</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C129" s="7">
-        <v>10</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F129" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H129" s="8">
-        <v>15</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="C130" s="7">
-        <v>10</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F130" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H130" s="8">
-        <v>15</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C131" s="7">
-        <v>10</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F131" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H131" s="8">
-        <v>15</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="C132" s="7">
-        <v>10</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F132" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>KT6011</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H132" s="8">
-        <v>15</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C133" s="7">
-        <v>1</v>
-      </c>
       <c r="E133" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F133" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA001</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>468</v>
+        <v>443</v>
+      </c>
+      <c r="F133" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H133" s="8">
-        <v>78</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J133" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="B134" s="7" t="s">
-        <v>378</v>
+        <v>537</v>
       </c>
       <c r="C134" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F134" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA002</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
+      </c>
+      <c r="F134" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H134" s="8">
-        <v>89</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J134" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="B135" s="7" t="s">
-        <v>382</v>
+        <v>554</v>
       </c>
       <c r="C135" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F135" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA003</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
+      </c>
+      <c r="F135" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H135" s="8">
-        <v>89</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J135" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="J135" s="7"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="B136" s="7" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
       <c r="C136" s="7">
         <v>1</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F136" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA004</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>460</v>
+        <v>502</v>
+      </c>
+      <c r="F136" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H136" s="8">
-        <v>168</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J136" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="J136" s="7"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="B137" s="7" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="C137" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F137" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA005</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
+      </c>
+      <c r="F137" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H137" s="8">
-        <v>145</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J137" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="J137" s="7"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="B138" s="7" t="s">
-        <v>420</v>
+        <v>553</v>
       </c>
       <c r="C138" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F138" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA006</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
+      </c>
+      <c r="F138" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H138" s="8">
-        <v>123</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="J138" s="7"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="B139" s="7" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="C139" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F139" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA007</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
+      </c>
+      <c r="F139" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H139" s="8">
-        <v>179</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J139" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="J139" s="7"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="B140" s="7" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
       <c r="C140" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F140" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA008</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>464</v>
+        <v>503</v>
+      </c>
+      <c r="F140" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H140" s="8">
-        <v>145</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J140" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="J140" s="7"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C141" s="7">
-        <v>1</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F141" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA009</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>467</v>
+      <c r="F141" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H141" s="8">
-        <v>111</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="J141" s="7"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="B142" s="7" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F142" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA010</v>
+        <v>473</v>
+      </c>
+      <c r="F142" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H142" s="8">
-        <v>100</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J142" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J142" s="7"/>
     </row>
     <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -6625,29 +6415,23 @@
       <c r="J146" s="4"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="B147" s="7" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F147" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA011</v>
+        <v>473</v>
+      </c>
+      <c r="F147" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H147" s="8">
-        <v>100</v>
-      </c>
-      <c r="I147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J147" s="3"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -6914,1167 +6698,1673 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="B158" s="7" t="s">
-        <v>255</v>
+        <v>512</v>
       </c>
       <c r="C158" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F158" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA012</v>
+        <v>480</v>
+      </c>
+      <c r="F158" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H158" s="8">
-        <v>78</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J158" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J158" s="7"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="B159" s="7" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
       <c r="C159" s="7">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F159" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA013</v>
+        <v>445</v>
+      </c>
+      <c r="F159" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H159" s="8">
-        <v>78</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J159" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J159" s="7"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="B160" s="7" t="s">
-        <v>429</v>
+        <v>520</v>
       </c>
       <c r="C160" s="7">
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F160" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>XIA014</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>464</v>
+        <v>502</v>
+      </c>
+      <c r="F160" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
       </c>
       <c r="H160" s="8">
-        <v>55</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J160" s="3"/>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J160" s="7"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="F161" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H161" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="J161" s="7"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C162" s="7">
         <v>1</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="F162" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H162" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J162" s="7"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="C163" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="F163" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H163" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C164" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F164" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H164" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C165" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="F165" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H165" s="8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C166" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="F166" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H166" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="B167" s="7" t="s">
-        <v>511</v>
+        <v>285</v>
       </c>
       <c r="C167" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F167" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+      <c r="F167" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0101</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="H167" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C168" s="7">
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="F168" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H168" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C169" s="7">
         <v>1</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="F169" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H169" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C170" s="7">
-        <v>1</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>443</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F170" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H170" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="C171" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E171" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F171" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="8">
+        <v>12</v>
+      </c>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C172" s="7">
+        <v>4</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F172" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H172" s="8">
+        <v>12</v>
+      </c>
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C173" s="7">
+        <v>4</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F173" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H173" s="8">
+        <v>12</v>
+      </c>
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C174" s="7">
+        <v>4</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F174" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="8">
+        <v>12</v>
+      </c>
+      <c r="J174" s="7"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F171" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C172" s="7">
-        <v>1</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F172" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C173" s="7">
-        <v>1</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F173" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H173" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="C174" s="7">
-        <v>1</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F174" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H174" s="8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="C175" s="7">
         <v>1</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="F175" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H175" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J175" s="7"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="B176" s="7" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C176" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F176" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F176" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="H176" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="B177" s="7" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="C177" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F177" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F177" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="H177" s="8">
+        <v>15</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C178" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C178" s="7">
-        <v>1</v>
-      </c>
       <c r="E178" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F178" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F178" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="H178" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="B179" s="7" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="C179" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F179" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F179" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="H179" s="8">
+        <v>15</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C180" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C180" s="7">
-        <v>1</v>
-      </c>
       <c r="E180" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F180" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F180" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="H180" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="B181" s="7" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="C181" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F181" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F181" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6011</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="H181" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C182" s="7">
         <v>1</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F182" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H182" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J182" s="7"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C183" s="7">
         <v>1</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F183" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H183" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J183" s="7"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="B184" s="7" t="s">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="C184" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F184" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="F184" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0100</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="H184" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J184" s="3"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="B185" s="7" t="s">
-        <v>490</v>
+        <v>310</v>
       </c>
       <c r="C185" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F185" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+      <c r="F185" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0100</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="H185" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J185" s="4"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="B186" s="7" t="s">
-        <v>491</v>
+        <v>311</v>
       </c>
       <c r="C186" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F186" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="F186" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>AD0100</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="H186" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J186" s="6"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="B187" s="7" t="s">
-        <v>527</v>
+        <v>331</v>
       </c>
       <c r="C187" s="7">
         <v>2</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F187" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>443</v>
+      </c>
+      <c r="F187" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1011</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="H187" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J187" s="4"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="B188" s="7" t="s">
-        <v>528</v>
+        <v>335</v>
       </c>
       <c r="C188" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F188" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+      <c r="F188" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1012</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="H188" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="B189" s="7" t="s">
-        <v>529</v>
+        <v>327</v>
       </c>
       <c r="C189" s="7">
+        <v>1</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F189" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1005</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H189" s="8">
+        <v>19</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J189" s="3"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C190" s="7">
+        <v>1</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F190" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1006</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H190" s="8">
+        <v>19</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J190" s="3"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C191" s="7">
+        <v>1</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F191" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6009</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H191" s="8">
+        <v>19</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J191" s="3"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C192" s="7">
+        <v>1</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F192" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H192" s="8">
+        <v>24</v>
+      </c>
+      <c r="J192" s="7"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C193" s="7">
+        <v>1</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F193" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1013</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H193" s="8">
+        <v>28</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J193" s="4"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C194" s="7">
+        <v>1</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F194" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1014</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H194" s="8">
+        <v>28</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J194" s="4"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C195" s="7">
+        <v>1</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F195" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>EL1014</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H195" s="8">
+        <v>28</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J195" s="4"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C196" s="7">
+        <v>1</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F196" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H196" s="8">
+        <v>28</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C197" s="7">
+        <v>1</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F197" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5343</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H197" s="8">
+        <v>28</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C198" s="7">
+        <v>1</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F198" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5412B</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H198" s="8">
+        <v>28</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C199" s="7">
         <v>2</v>
       </c>
-      <c r="E189" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F189" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H189" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C190" s="7">
+      <c r="E199" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F199" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1004</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H199" s="8">
+        <v>29</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" s="7">
+        <v>1</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F200" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H200" s="8">
+        <v>37</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="7">
+        <v>1</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F201" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5332</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H201" s="8">
+        <v>37</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J201" s="3"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C202" s="7">
+        <v>1</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F202" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT5385</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H202" s="8">
+        <v>37</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C203" s="7">
+        <v>1</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F203" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H203" s="8">
+        <v>39</v>
+      </c>
+      <c r="J203" s="7"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C204" s="7">
         <v>2</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F190" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H190" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C191" s="7">
+      <c r="E204" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F204" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>FA1001</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H204" s="8">
+        <v>40</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C205" s="7">
+        <v>1</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F205" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H205" s="8">
+        <v>40</v>
+      </c>
+      <c r="J205" s="7"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C206" s="7">
+        <v>1</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F206" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="8">
+        <v>45</v>
+      </c>
+      <c r="J206" s="7"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C207" s="7">
         <v>2</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F191" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H191" s="8">
+      <c r="E207" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F207" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>KT6010</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H207" s="8">
+        <v>50</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C208" s="7">
+        <v>1</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F208" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA014</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H208" s="8">
+        <v>55</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J208" s="3"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C209" s="7">
+        <v>1</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F209" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA001</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H209" s="8">
+        <v>78</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209" s="4"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C210" s="7">
+        <v>2</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F210" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA012</v>
+      </c>
+      <c r="H210" s="8">
+        <v>78</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J210" s="3"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C211" s="7">
+        <v>1</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F211" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA013</v>
+      </c>
+      <c r="H211" s="8">
+        <v>78</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" s="3"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C212" s="7">
+        <v>1</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F212" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA002</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H212" s="8">
+        <v>89</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C213" s="7">
+        <v>1</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F213" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA003</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H213" s="8">
+        <v>89</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C214" s="7">
+        <v>1</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F214" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA010</v>
+      </c>
+      <c r="H214" s="8">
+        <v>100</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214" s="3"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C215" s="7">
+        <v>1</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F215" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA011</v>
+      </c>
+      <c r="H215" s="8">
+        <v>100</v>
+      </c>
+      <c r="I215" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C192" s="7">
-        <v>2</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F192" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H192" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C193" s="7">
-        <v>2</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F193" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H193" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C194" s="7">
-        <v>2</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F194" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H194" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C195" s="7">
-        <v>2</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F195" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H195" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="C196" s="7">
-        <v>2</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F196" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H196" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C197" s="7">
-        <v>2</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F197" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H197" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C198" s="7">
-        <v>2</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F198" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H198" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C199" s="7">
-        <v>3</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F199" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H199" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C200" s="7">
-        <v>3</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F200" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H200" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C201" s="7">
-        <v>3</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F201" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H201" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B202" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C202" s="7">
-        <v>3</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F202" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H202" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C203" s="7">
-        <v>3</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F203" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H203" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F204" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H204" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C205" s="7">
-        <v>3</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F205" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H205" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C206" s="7">
-        <v>4</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F206" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H206" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C207" s="7">
-        <v>4</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F207" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H207" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C208" s="7">
-        <v>4</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F208" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H208" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="C209" s="7">
-        <v>4</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F209" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H209" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C210" s="7">
-        <v>4</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F210" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H210" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C211" s="7">
-        <v>4</v>
-      </c>
-      <c r="E211" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F211" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H211" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C212" s="7">
-        <v>5</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F212" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H212" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C213" s="7">
-        <v>5</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F213" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H213" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="C214" s="7">
-        <v>5</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F214" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H214" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C215" s="7">
-        <v>5</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F215" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
-      </c>
-      <c r="H215" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J215" s="3"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>423</v>
+      </c>
       <c r="B216" s="7" t="s">
-        <v>555</v>
+        <v>424</v>
       </c>
       <c r="C216" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F216" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="F216" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA009</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="H216" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216" s="3"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="B217" s="7" t="s">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="C217" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F217" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="F217" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA006</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="H217" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J217" s="3"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="B218" s="7" t="s">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="C218" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F218" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="F218" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA005</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>466</v>
       </c>
       <c r="H218" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J218" s="3"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="B219" s="7" t="s">
-        <v>501</v>
+        <v>416</v>
       </c>
       <c r="C219" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F219" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="F219" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA008</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="H219" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F220" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J219" s="3"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C220" s="7">
+        <v>1</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F220" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA004</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="H220" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J220" s="3"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="B221" s="7" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="C221" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F221" s="7">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="F221" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>XIA007</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="H221" s="8">
-        <v>0.5</v>
+        <v>179</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J221" s="3"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C222" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F222" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H222" s="8"/>
+      <c r="I222" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C223" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F223" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H223" s="8"/>
+      <c r="I223" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="J223" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C224" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F224" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H224" s="8"/>
+      <c r="I224" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="225" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F225" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H225" s="8"/>
+      <c r="I225" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="226" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F226" s="7">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H226" s="8"/>
+      <c r="I226" s="7" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBB1841-1E52-4FF7-AE1C-021161DDA78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EE847-306A-4C28-A2FE-923C60B9187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="599">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1535,9 +1535,6 @@
     <t>Sticker para manijas x4 colores</t>
   </si>
   <si>
-    <t>Sticker Gecko Relectivo 10x5cm</t>
-  </si>
-  <si>
     <t>Sticker PET de 3-8cm Varios</t>
   </si>
   <si>
@@ -1577,9 +1574,6 @@
     <t>Dedales Gamer x4 NEGRO</t>
   </si>
   <si>
-    <t>Embudo de Silicona Plegable 7x7cm AZUL</t>
-  </si>
-  <si>
     <t>Figura de acción Broly 20CM VERDE</t>
   </si>
   <si>
@@ -1794,6 +1788,48 @@
   </si>
   <si>
     <t>EN TRANSITO</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61osZEFK3iL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Refelctivo, 10cm x 5cm</t>
+  </si>
+  <si>
+    <t>Sticker Gecko</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S0f21576eff554b2591ebcdb601a5cff1N.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>Embudo de Silicona Plegable AZUL</t>
+  </si>
+  <si>
+    <t>7.5cm x 7cm x 1.5cm</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S268e4b90bb0545778763e816ccd1e0204.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/HTB18Q_WyNGYBuNjy0Fnq6x5lpXaK.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S81c9849078e243dfa6bd9870dd09210bS.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://tecnoadictos.com.ar/wp-content/uploads/2024/12/480MBPS-LECTOR-MEMORIA-15-IN-1-3.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_669499-MLB53315466897_012023-O.webp</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/S1db186753ab449ad91f5f91611cbdfc7g.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae-pic-a1.aliexpress-media.com/kf/H0c333043f5cb491ba121a55e70a01f075.jpg_960x960q75.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S3be3b44d2954455493e762950686544e3.jpg</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1912,6 +1948,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1980,8 +2017,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J226" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:J226" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J227" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:J227" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -2300,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225:C226"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2390,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="7">
         <v>116</v>
@@ -2369,7 +2406,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -2557,7 +2594,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -2573,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -2856,7 +2893,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -2872,13 +2909,13 @@
         <v>3</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>500</v>
+        <v>587</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -2890,27 +2927,39 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
+      <c r="G20" s="7" t="s">
+        <v>586</v>
+      </c>
       <c r="H20" s="8">
         <v>3</v>
       </c>
+      <c r="I20" s="7" t="s">
+        <v>585</v>
+      </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F21" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>590</v>
       </c>
       <c r="H21" s="8">
         <v>4</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>588</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -4530,21 +4579,21 @@
         <v>4</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C75" s="7">
         <v>2</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F75" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4554,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J75" s="7"/>
     </row>
@@ -4699,6 +4748,9 @@
       <c r="H80" s="8">
         <v>4</v>
       </c>
+      <c r="I80" s="7" t="s">
+        <v>591</v>
+      </c>
       <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5724,7 +5776,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C114" s="7">
         <v>3</v>
@@ -5740,19 +5792,19 @@
         <v>4</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F115" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5761,11 +5813,14 @@
       <c r="H115" s="8">
         <v>5</v>
       </c>
+      <c r="I115" s="7" t="s">
+        <v>592</v>
+      </c>
       <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C116" s="7">
         <v>1</v>
@@ -5781,13 +5836,13 @@
         <v>5</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -5803,7 +5858,7 @@
         <v>5</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J117" s="7"/>
     </row>
@@ -5824,6 +5879,9 @@
       <c r="H118" s="8">
         <v>5</v>
       </c>
+      <c r="I118" s="7" t="s">
+        <v>594</v>
+      </c>
       <c r="J118" s="7"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5847,7 +5905,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C120" s="7">
         <v>2</v>
@@ -5861,6 +5919,9 @@
       </c>
       <c r="H120" s="8">
         <v>5</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>595</v>
       </c>
       <c r="J120" s="7"/>
     </row>
@@ -5882,13 +5943,13 @@
         <v>5</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J121" s="7"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C122" s="7">
         <v>2</v>
@@ -5904,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J122" s="7"/>
     </row>
@@ -5926,13 +5987,13 @@
         <v>5</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J123" s="7"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C124" s="7">
         <v>2</v>
@@ -5947,11 +6008,14 @@
       <c r="H124" s="8">
         <v>5</v>
       </c>
+      <c r="I124" s="7" t="s">
+        <v>596</v>
+      </c>
       <c r="J124" s="7"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C125" s="7">
         <v>2</v>
@@ -5967,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J125" s="7"/>
     </row>
@@ -5988,11 +6052,14 @@
       <c r="H126" s="8">
         <v>5</v>
       </c>
+      <c r="I126" s="7" t="s">
+        <v>597</v>
+      </c>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C127" s="7">
         <v>3</v>
@@ -6008,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J127" s="7"/>
     </row>
@@ -6027,21 +6094,21 @@
         <v>0</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H128" s="8">
         <v>5</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C129" s="7">
         <v>4</v>
@@ -6056,11 +6123,14 @@
       <c r="H129" s="8">
         <v>5</v>
       </c>
+      <c r="I129" s="7" t="s">
+        <v>598</v>
+      </c>
       <c r="J129" s="7"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C130" s="7">
         <v>5</v>
@@ -6076,13 +6146,13 @@
         <v>5</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J130" s="7"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C131" s="7">
         <v>6</v>
@@ -6101,7 +6171,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C132" s="7">
         <v>1</v>
@@ -6120,7 +6190,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C133" s="7">
         <v>2</v>
@@ -6139,7 +6209,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C134" s="7">
         <v>4</v>
@@ -6158,7 +6228,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C135" s="7">
         <v>6</v>
@@ -6174,19 +6244,19 @@
         <v>7</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J135" s="7"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C136" s="7">
         <v>1</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F136" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6215,13 +6285,13 @@
         <v>8</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J137" s="7"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C138" s="7">
         <v>5</v>
@@ -6256,19 +6326,19 @@
         <v>8</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J139" s="7"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C140" s="7">
         <v>2</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F140" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6291,7 +6361,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
@@ -6416,7 +6486,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
@@ -6699,7 +6769,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C158" s="7">
         <v>1</v>
@@ -6718,7 +6788,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C159" s="7">
         <v>1</v>
@@ -6737,13 +6807,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C160" s="7">
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F160" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6756,7 +6826,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
@@ -6772,7 +6842,7 @@
         <v>10</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J161" s="7"/>
     </row>
@@ -6797,7 +6867,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C163" s="7">
         <v>2</v>
@@ -6816,7 +6886,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C164" s="7">
         <v>2</v>
@@ -6832,7 +6902,7 @@
         <v>10</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J164" s="7"/>
     </row>
@@ -6844,7 +6914,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F165" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6873,7 +6943,7 @@
         <v>10</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J166" s="7"/>
     </row>
@@ -6907,7 +6977,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C168" s="7">
         <v>1</v>
@@ -6926,7 +6996,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C169" s="7">
         <v>1</v>
@@ -6955,13 +7025,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C171" s="7">
         <v>4</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F171" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6974,13 +7044,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C172" s="7">
         <v>4</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F172" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -6993,13 +7063,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C173" s="7">
         <v>4</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F173" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7012,13 +7082,13 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C174" s="7">
         <v>4</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F174" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7031,13 +7101,13 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C175" s="7">
         <v>1</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F175" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -7053,7 +7123,7 @@
         <v>289</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C176" s="7">
         <v>10</v>
@@ -7083,7 +7153,7 @@
         <v>289</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C177" s="7">
         <v>10</v>
@@ -7113,7 +7183,7 @@
         <v>289</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C178" s="7">
         <v>10</v>
@@ -7143,7 +7213,7 @@
         <v>289</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C179" s="7">
         <v>10</v>
@@ -7173,7 +7243,7 @@
         <v>289</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C180" s="7">
         <v>10</v>
@@ -7203,7 +7273,7 @@
         <v>289</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C181" s="7">
         <v>10</v>
@@ -7230,7 +7300,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C182" s="7">
         <v>1</v>
@@ -7249,7 +7319,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C183" s="7">
         <v>1</v>
@@ -7492,7 +7562,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C192" s="7">
         <v>1</v>
@@ -7803,7 +7873,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C203" s="7">
         <v>1</v>
@@ -7852,7 +7922,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C205" s="7">
         <v>1</v>
@@ -7871,7 +7941,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C206" s="7">
         <v>1</v>
@@ -7951,7 +8021,7 @@
         <v>425</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C209" s="7">
         <v>1</v>
@@ -8275,7 +8345,7 @@
         <v>414</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C221" s="7">
         <v>1</v>
@@ -8300,7 +8370,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C222" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F222" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8308,12 +8378,12 @@
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C223" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F223" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8321,15 +8391,15 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C224" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F224" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8337,27 +8407,43 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="225" spans="6:9" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F225" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="226" spans="6:9" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F226" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C227" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F227" s="10">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H227" s="8"/>
+      <c r="I227" s="7" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EE847-306A-4C28-A2FE-923C60B9187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC610DD7-BAA7-4268-B2A3-2A1E31C95040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="620">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1823,13 +1823,76 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_669499-MLB53315466897_012023-O.webp</t>
   </si>
   <si>
-    <t>https://ae-pic-a1.aliexpress-media.com/kf/S1db186753ab449ad91f5f91611cbdfc7g.jpg_960x960q75.jpg</t>
-  </si>
-  <si>
-    <t>https://ae-pic-a1.aliexpress-media.com/kf/H0c333043f5cb491ba121a55e70a01f075.jpg_960x960q75.jpg</t>
-  </si>
-  <si>
     <t>https://ae01.alicdn.com/kf/S3be3b44d2954455493e762950686544e3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.intercyprus.com/cdn/shop/files/aaf729e2-cc35-4d14-96d6-b381f5aa6252.jpg</t>
+  </si>
+  <si>
+    <t>https://img.joomcdn.net/80c1a60906182457d02c893b1c74dbbca0ebe7ed_original.jpeg</t>
+  </si>
+  <si>
+    <t>https://img.joomcdn.net/fe719753317e67740a5a055ad1d889b2db6c5391_original.jpeg</t>
+  </si>
+  <si>
+    <t>https://coolboxpe.vtexassets.com/arquivos/ids/277465-800-800?v=638219163682200000.jpg</t>
+  </si>
+  <si>
+    <t>https://plazavea.vteximg.com.br/arquivos/ids/16755450-418-418/image-4926ee5b681b412b9fd891f7bee418af.jpg</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/76107/product/proco-14x-e13455.jpg</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_841592-MLU54718848989_032023-O.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71k+JJfLdDL._UY350_.jpg</t>
+  </si>
+  <si>
+    <t>https://s.alicdn.com/@sc04/kf/H5e5f3b18d84940178b3e2ed9c7b0f862s.jpg</t>
+  </si>
+  <si>
+    <t>https://tenda24.pe/cdn/shop/files/S1d2c150f1f864d0badec822bbfcfd0c30.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_Q_NP_735491-MLU73805295276_012024-O.jpg</t>
+  </si>
+  <si>
+    <t>https://img.joomcdn.net/4011e499955db4dacb10772d332db88ee38c5a17_original.jpeg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S5ed3acb0573b4631b7cb40a2eecbe120g.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S1c9be3d8efa84444ab3361d982856993e.jpg</t>
+  </si>
+  <si>
+    <t>https://plazavea.vteximg.com.br/arquivos/ids/25993859-418-418/image-6f4072c3b49c4143bf7462bb524e3d01.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71uQA-j8elL._UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81puHsA9KAL._UY350_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71-9vBvpgDL._UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_791879-MLU71266333911_082023-O.jpg</t>
+  </si>
+  <si>
+    <t>https://adhek-peru.com/cdn/shop/products/FIGURA_BROLY_DRAGON_BALLZ_26114_BANDAI_a_2048x.jpg</t>
+  </si>
+  <si>
+    <t>https://i5.walmartimages.com/asr/4408004d-64f3-43a7-b4ab-6e0be6259cd4.7bef667ddcb77ffe921d8ad96d967b84.jpeg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S2fda666123c34aa9ac4437dfd66ec1735.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sf158e6ce530a4cfb9e74bdd4fe91eeeej.jpg</t>
   </si>
 </sst>
 </file>
@@ -2017,8 +2080,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J227" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:J227" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J228" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:J228" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -2337,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="I201" sqref="I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6009,7 +6072,7 @@
         <v>5</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J124" s="7"/>
     </row>
@@ -6053,7 +6116,7 @@
         <v>5</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J126" s="7"/>
     </row>
@@ -6124,7 +6187,7 @@
         <v>5</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J129" s="7"/>
     </row>
@@ -6186,7 +6249,12 @@
       <c r="H132" s="8">
         <v>6</v>
       </c>
-      <c r="J132" s="7"/>
+      <c r="I132" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
@@ -6205,6 +6273,9 @@
       <c r="H133" s="8">
         <v>6</v>
       </c>
+      <c r="I133" s="7" t="s">
+        <v>602</v>
+      </c>
       <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -6224,6 +6295,9 @@
       <c r="H134" s="8">
         <v>6</v>
       </c>
+      <c r="I134" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -6264,6 +6338,9 @@
       </c>
       <c r="H136" s="8">
         <v>8</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>604</v>
       </c>
       <c r="J136" s="7"/>
     </row>
@@ -6784,6 +6861,9 @@
       <c r="H158" s="8">
         <v>10</v>
       </c>
+      <c r="I158" s="7" t="s">
+        <v>605</v>
+      </c>
       <c r="J158" s="7"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6803,6 +6883,9 @@
       <c r="H159" s="8">
         <v>10</v>
       </c>
+      <c r="I159" s="7" t="s">
+        <v>606</v>
+      </c>
       <c r="J159" s="7"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -6822,6 +6905,9 @@
       <c r="H160" s="8">
         <v>10</v>
       </c>
+      <c r="I160" s="7" t="s">
+        <v>607</v>
+      </c>
       <c r="J160" s="7"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -6863,6 +6949,9 @@
       <c r="H162" s="8">
         <v>10</v>
       </c>
+      <c r="I162" s="7" t="s">
+        <v>608</v>
+      </c>
       <c r="J162" s="7"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6882,6 +6971,9 @@
       <c r="H163" s="8">
         <v>10</v>
       </c>
+      <c r="I163" s="7" t="s">
+        <v>609</v>
+      </c>
       <c r="J163" s="7"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6923,6 +7015,9 @@
       <c r="H165" s="8">
         <v>10</v>
       </c>
+      <c r="I165" s="7" t="s">
+        <v>610</v>
+      </c>
       <c r="J165" s="7"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6992,6 +7087,9 @@
       <c r="H168" s="8">
         <v>12</v>
       </c>
+      <c r="I168" s="7" t="s">
+        <v>611</v>
+      </c>
       <c r="J168" s="7"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -7011,6 +7109,9 @@
       <c r="H169" s="8">
         <v>12</v>
       </c>
+      <c r="I169" s="7" t="s">
+        <v>612</v>
+      </c>
       <c r="J169" s="7"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -7116,6 +7217,9 @@
       <c r="H175" s="8">
         <v>14</v>
       </c>
+      <c r="I175" s="7" t="s">
+        <v>613</v>
+      </c>
       <c r="J175" s="7"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -7315,6 +7419,9 @@
       <c r="H182" s="8">
         <v>17</v>
       </c>
+      <c r="I182" s="7" t="s">
+        <v>614</v>
+      </c>
       <c r="J182" s="7"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -7334,6 +7441,9 @@
       <c r="H183" s="8">
         <v>17</v>
       </c>
+      <c r="I183" s="7" t="s">
+        <v>615</v>
+      </c>
       <c r="J183" s="7"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -7575,7 +7685,10 @@
         <v>0</v>
       </c>
       <c r="H192" s="8">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>616</v>
       </c>
       <c r="J192" s="7"/>
     </row>
@@ -7888,6 +8001,9 @@
       <c r="H203" s="8">
         <v>39</v>
       </c>
+      <c r="I203" s="7" t="s">
+        <v>617</v>
+      </c>
       <c r="J203" s="7"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -7937,6 +8053,9 @@
       <c r="H205" s="8">
         <v>40</v>
       </c>
+      <c r="I205" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="J205" s="7"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -7956,6 +8075,9 @@
       <c r="H206" s="8">
         <v>45</v>
       </c>
+      <c r="I206" s="7" t="s">
+        <v>619</v>
+      </c>
       <c r="J206" s="7"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -8444,6 +8566,19 @@
       <c r="H227" s="8"/>
       <c r="I227" s="7" t="s">
         <v>593</v>
+      </c>
+    </row>
+    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E228" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F228" s="10">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H228" s="8"/>
+      <c r="I228" s="7" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/producto.xlsx
+++ b/producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC610DD7-BAA7-4268-B2A3-2A1E31C95040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B3DD5D-B877-47E9-B05F-B971E95B5503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="I201" sqref="I201"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6261,7 +6261,7 @@
         <v>525</v>
       </c>
       <c r="C133" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>443</v>
